--- a/dataset/sample.xlsx
+++ b/dataset/sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="617">
   <si>
     <t>Full Name</t>
   </si>
@@ -25,1858 +25,1846 @@
     <t>Hard Skills</t>
   </si>
   <si>
+    <t>Zhdanov Efim Georgievich</t>
+  </si>
+  <si>
+    <t>Nikonov Solomon Timofeevich</t>
+  </si>
+  <si>
+    <t>Galkin Feliks Nikitevich</t>
+  </si>
+  <si>
+    <t>Afanas'yev Al'fred Ulebovich</t>
+  </si>
+  <si>
+    <t>Damian Reese</t>
+  </si>
+  <si>
+    <t>Golubeva Muza Mikhaylovna</t>
+  </si>
+  <si>
+    <t>Davin Hebert</t>
+  </si>
+  <si>
+    <t>Frankie Atkins</t>
+  </si>
+  <si>
+    <t>Osipova Gelana Vasil'yevna</t>
+  </si>
+  <si>
+    <t>Rayne Russell</t>
+  </si>
+  <si>
+    <t>Soboleva Ellina Daniilovna</t>
+  </si>
+  <si>
+    <t>Shchukin German Petrovich</t>
+  </si>
+  <si>
+    <t>Gorshkov Igor' Aristarkhovich</t>
+  </si>
+  <si>
+    <t>Kharitonova Neonila Maksovna</t>
+  </si>
+  <si>
+    <t>Shchukina Danuta Avdeevna</t>
+  </si>
+  <si>
+    <t>Larionova Zlata Tikhonovna</t>
+  </si>
+  <si>
+    <t>Smirnov Gennadiy Evgen'yevich</t>
+  </si>
+  <si>
+    <t>Zhukova Bronislava Al'bertovna</t>
+  </si>
+  <si>
+    <t>Javion Cameron</t>
+  </si>
+  <si>
+    <t>Isaeva Yanina Natanovna</t>
+  </si>
+  <si>
+    <t>Osipov Vladislav Stanislavovich</t>
+  </si>
+  <si>
+    <t>Potapov Arkhip Yulianovich</t>
+  </si>
+  <si>
+    <t>Avery Daniels</t>
+  </si>
+  <si>
+    <t>Matveev Grigoriy Luk'yanovich</t>
+  </si>
+  <si>
+    <t>Kosheleva Debora Eduardovna</t>
+  </si>
+  <si>
+    <t>Markov Kazimir Tarasovich</t>
+  </si>
+  <si>
+    <t>Fokina Nora Luk'yevna</t>
+  </si>
+  <si>
+    <t>Yudin Kirill Maksimovich</t>
+  </si>
+  <si>
+    <t>Yakushev Matvey Mikhailovich</t>
+  </si>
+  <si>
+    <t>Konnor Robertson</t>
+  </si>
+  <si>
+    <t>Rogova Birgit Vyacheslavovna</t>
+  </si>
+  <si>
+    <t>Isla Ayala</t>
+  </si>
+  <si>
+    <t>Bobylev Klement Pavlovich</t>
+  </si>
+  <si>
+    <t>Zhdanova Alesya Mikhaylovna</t>
+  </si>
+  <si>
+    <t>Mishina Larisa Valer'yevna</t>
+  </si>
+  <si>
+    <t>Fedoseev Karl Yakovlevich</t>
+  </si>
+  <si>
+    <t>Konovalov May Makarovich</t>
+  </si>
+  <si>
+    <t>Suvorova Aziza Naumovna</t>
+  </si>
+  <si>
+    <t>Zhuravlev May Nikitevich</t>
+  </si>
+  <si>
+    <t>Blinov Ernest Georg'yevich</t>
+  </si>
+  <si>
+    <t>Bragina Disha Vasil'yevna</t>
+  </si>
+  <si>
+    <t>Eduardo Orr</t>
+  </si>
+  <si>
+    <t>Nikitin Zinoviy Alekseevich</t>
+  </si>
+  <si>
+    <t>Deegan Walker</t>
+  </si>
+  <si>
+    <t>Avdeev Avvakuum Fedorovich</t>
+  </si>
+  <si>
+    <t>Kolobova Genrietta Andreevna</t>
+  </si>
+  <si>
+    <t>Macie Mcintyre</t>
+  </si>
+  <si>
+    <t>Ivankov El'dar Leonidovich</t>
+  </si>
+  <si>
+    <t>Bogdanova Yanina Leonidovna</t>
+  </si>
+  <si>
+    <t>Fadeeva Marta Ignat'yevna</t>
+  </si>
+  <si>
+    <t>Braylon Garner</t>
+  </si>
+  <si>
+    <t>Jayden Zamora</t>
+  </si>
+  <si>
+    <t>Grishina Kamilla Onisimovna</t>
+  </si>
+  <si>
+    <t>Bespalov Gordey Proklovich</t>
+  </si>
+  <si>
+    <t>Derick Klein</t>
+  </si>
+  <si>
+    <t>Kuz'mina Marfa Agafonovna</t>
+  </si>
+  <si>
+    <t>Griffin Acevedo</t>
+  </si>
+  <si>
+    <t>Cora Perez</t>
+  </si>
+  <si>
+    <t>Kostin Vladislav Matveevich</t>
+  </si>
+  <si>
+    <t>Chloe Cabrera</t>
+  </si>
+  <si>
+    <t>Frolov Ippolit Ruslanovich</t>
+  </si>
+  <si>
+    <t>Malik Walton</t>
+  </si>
+  <si>
+    <t>Albert Faulkner</t>
+  </si>
+  <si>
+    <t>Bogdanova Raya Leonidovna</t>
+  </si>
+  <si>
+    <t>Danika Cardenas</t>
+  </si>
+  <si>
+    <t>Subbotin Aleksey Tikhonovich</t>
+  </si>
+  <si>
+    <t>Filippova Yunona Mikhailovna</t>
+  </si>
+  <si>
+    <t>Jovanny Melton</t>
+  </si>
+  <si>
+    <t>Makarova Izabella Maksimovna</t>
+  </si>
+  <si>
+    <t>Burov Leonid Maksimovich</t>
+  </si>
+  <si>
+    <t>Geovanni Rojas</t>
+  </si>
+  <si>
+    <t>Ryder Meadows</t>
+  </si>
+  <si>
+    <t>Jack Hayes</t>
+  </si>
+  <si>
+    <t>Ershov Aleksandr El'darovich</t>
+  </si>
+  <si>
+    <t>Hannah Anthony</t>
+  </si>
+  <si>
+    <t>Fokin Artem Germannovich</t>
+  </si>
+  <si>
+    <t>Mironov Korneliy Panteleymonovich</t>
+  </si>
+  <si>
+    <t>Giovanna Mendez</t>
+  </si>
+  <si>
+    <t>Shubina Gelena Davidovna</t>
+  </si>
+  <si>
+    <t>August Howard</t>
+  </si>
+  <si>
+    <t>Maurice Wilkerson</t>
+  </si>
+  <si>
+    <t>Jaime Mclean</t>
+  </si>
+  <si>
+    <t>Belov Frol Yulianovich</t>
+  </si>
+  <si>
+    <t>Novikova Elizaveta Avdeevna</t>
+  </si>
+  <si>
+    <t>Kovaleva Elena Melorovna</t>
+  </si>
+  <si>
+    <t>Rogova Bella Mironovna</t>
+  </si>
+  <si>
+    <t>Elsa Singleton</t>
+  </si>
+  <si>
+    <t>Quinn Vargas</t>
+  </si>
+  <si>
+    <t>Kuznetsov Robert Gordeevich</t>
+  </si>
+  <si>
+    <t>Micah Sloan</t>
+  </si>
+  <si>
+    <t>Martynova Asida Khristoforovna</t>
+  </si>
+  <si>
+    <t>Samsonova Venera Agafonovna</t>
+  </si>
+  <si>
+    <t>Lukin Klement Romanovich</t>
+  </si>
+  <si>
+    <t>Semenov Lavr Agafonovich</t>
+  </si>
+  <si>
+    <t>Kristen Stein</t>
+  </si>
+  <si>
+    <t>Petrov Prokhor Protas'yevich</t>
+  </si>
+  <si>
+    <t>Lilly Hanson</t>
+  </si>
+  <si>
+    <t>Smirnova Dzhul'yetta Borisovna</t>
+  </si>
+  <si>
+    <t>Myshkin Yustin Daniilovich</t>
+  </si>
+  <si>
+    <t>Trofimov Vitaliy Mitrofanovich</t>
+  </si>
+  <si>
+    <t>Tobias Gomez</t>
+  </si>
+  <si>
+    <t>Gordeeva Yuna Gennadievna</t>
+  </si>
+  <si>
+    <t>Volkova Lyubava Filippovna</t>
+  </si>
+  <si>
+    <t>Jayleen Guerra</t>
+  </si>
+  <si>
+    <t>Konstantinova Lili Lavrent'yevna</t>
+  </si>
+  <si>
+    <t>Lytkin Evdokim Yulianovich</t>
+  </si>
+  <si>
+    <t>Alisson Moody</t>
+  </si>
+  <si>
+    <t>Naumov Apollon Adol'fovich</t>
+  </si>
+  <si>
+    <t>Ivanova Gera Vladislavovna</t>
+  </si>
+  <si>
+    <t>Everett Patterson</t>
+  </si>
+  <si>
+    <t>Sergeeva Avigeya Oskarovna</t>
+  </si>
+  <si>
+    <t>Kennedi Bruce</t>
+  </si>
+  <si>
+    <t>Sobolev Azariy Fedoseevich</t>
+  </si>
+  <si>
+    <t>Kulakova Karmelitta Rudol'fovna</t>
+  </si>
+  <si>
+    <t>Panfilova Yulanta Veniaminovna</t>
+  </si>
+  <si>
+    <t>Arkhipova Eva Mikhaylovna</t>
+  </si>
+  <si>
+    <t>Scarlett Lowe</t>
+  </si>
+  <si>
+    <t>Romanova Nikol' Vladlenovna</t>
+  </si>
+  <si>
+    <t>Ignatova Tat'yana Veniaminovna</t>
+  </si>
+  <si>
+    <t>Sobolev Donat Aristarkhovich</t>
+  </si>
+  <si>
+    <t>Andrew Schroeder</t>
+  </si>
+  <si>
+    <t>Petukhova Tomila Daniilovna</t>
+  </si>
+  <si>
+    <t>Kyson Torres</t>
+  </si>
+  <si>
+    <t>Hector Wells</t>
+  </si>
+  <si>
+    <t>Sergeev Ostap Filippovich</t>
+  </si>
+  <si>
+    <t>Komarova Eshli Timofeevna</t>
+  </si>
+  <si>
+    <t>Elisa Caldwell</t>
+  </si>
+  <si>
+    <t>Noel Lopez</t>
+  </si>
+  <si>
+    <t>Bridget Mcgrath</t>
+  </si>
+  <si>
+    <t>Kalinina Bozhena Ulebovna</t>
+  </si>
+  <si>
+    <t>Ismael Ochoa</t>
+  </si>
+  <si>
+    <t>Veselov Illarion Avksent'yevich</t>
+  </si>
+  <si>
+    <t>Genevieve Edwards</t>
+  </si>
+  <si>
+    <t>Semenova Lyudmila Yulianovna</t>
+  </si>
+  <si>
+    <t>Darius Ashley</t>
+  </si>
+  <si>
+    <t>Kabanov Matvey Al'vianovich</t>
+  </si>
+  <si>
+    <t>Sharov Artem Svyatoslavovich</t>
+  </si>
+  <si>
+    <t>Conner Briggs</t>
+  </si>
+  <si>
+    <t>Addisyn Blair</t>
+  </si>
+  <si>
+    <t>Anisimov Rostislav Gordeevich</t>
+  </si>
+  <si>
+    <t>Silina Eleonora Avksent'yevna</t>
+  </si>
+  <si>
+    <t>Lobanov Nison Platonovich</t>
+  </si>
+  <si>
+    <t>Belozerova Kelen Mironovna</t>
+  </si>
+  <si>
+    <t>Savel'yev Adol'f Al'bertovich</t>
+  </si>
+  <si>
+    <t>Ovchinnikov Benedikt Valer'yevich</t>
+  </si>
+  <si>
+    <t>Nesterova Al'berta Kupriyanovna</t>
+  </si>
+  <si>
+    <t>Alisson Warner</t>
+  </si>
+  <si>
+    <t>Elisa Lara</t>
+  </si>
+  <si>
+    <t>Vasil'yeva Polianna Davidovna</t>
+  </si>
+  <si>
+    <t>Brycen Weber</t>
+  </si>
+  <si>
+    <t>Panfilov Ernest Artemovich</t>
+  </si>
+  <si>
+    <t>Kononov Paramon Mikhailovich</t>
+  </si>
+  <si>
+    <t>Rodionov Paramon Vladislavovich</t>
+  </si>
+  <si>
     <t>Seliverstov Yulian Anatol'yevich</t>
   </si>
   <si>
+    <t>Mariyah Colon</t>
+  </si>
+  <si>
+    <t>Kazakov Sevast'yan Il'yaovich</t>
+  </si>
+  <si>
+    <t>Antonova Darina Fedoseevna</t>
+  </si>
+  <si>
+    <t>Efimov Lavr Germannovich</t>
+  </si>
+  <si>
+    <t>Phillip Leon</t>
+  </si>
+  <si>
+    <t>Tyler Lowe</t>
+  </si>
+  <si>
+    <t>Harmony Holder</t>
+  </si>
+  <si>
+    <t>Dominique Cox</t>
+  </si>
+  <si>
+    <t>Abramova Inessa Yulianovna</t>
+  </si>
+  <si>
+    <t>Ulises Colon</t>
+  </si>
+  <si>
+    <t>Dahlia Bowman</t>
+  </si>
+  <si>
+    <t>Pavlov Timofey Pavlovich</t>
+  </si>
+  <si>
+    <t>Alejandra Burns</t>
+  </si>
+  <si>
+    <t>Il'ina Milisa Iosifovna</t>
+  </si>
+  <si>
+    <t>Blinova Patrisiya Kirillovna</t>
+  </si>
+  <si>
+    <t>Kaley Bender</t>
+  </si>
+  <si>
+    <t>Julissa Webb</t>
+  </si>
+  <si>
+    <t>Gordeev Flor Dem'yanovich</t>
+  </si>
+  <si>
+    <t>Doronin Leontiy Panteleymonovich</t>
+  </si>
+  <si>
+    <t>Lavrent'yeva Diodora Gennadievna</t>
+  </si>
+  <si>
+    <t>Cecilia Wade</t>
+  </si>
+  <si>
+    <t>Osipov Efim Sergeevich</t>
+  </si>
+  <si>
+    <t>Konstantinov Rudol'f Timofeevich</t>
+  </si>
+  <si>
+    <t>Kabanova Georgina Semenovna</t>
+  </si>
+  <si>
+    <t>Ray Roman</t>
+  </si>
+  <si>
+    <t>Zuev Gayane Antoninovich</t>
+  </si>
+  <si>
+    <t>Orlova Dzhuliya Ignat'yevna</t>
+  </si>
+  <si>
+    <t>Xander Prince</t>
+  </si>
+  <si>
+    <t>Solov'yev Semen Valentinovich</t>
+  </si>
+  <si>
+    <t>Gerasimov Askol'd Timurovich</t>
+  </si>
+  <si>
+    <t>Zimina Severina Stanislavovna</t>
+  </si>
+  <si>
+    <t>Fomicheva Tereza Kimovna</t>
+  </si>
+  <si>
+    <t>Caden Glass</t>
+  </si>
+  <si>
+    <t>Novikov Il'ya Tarasovich</t>
+  </si>
+  <si>
+    <t>Quinton Ali</t>
+  </si>
+  <si>
+    <t>Karissa Howell</t>
+  </si>
+  <si>
+    <t>Ermakova Sil'va Filatovna</t>
+  </si>
+  <si>
+    <t>Likhachev Vitol'd Fedoseevich</t>
+  </si>
+  <si>
+    <t>Kuznetsov Kondratiy Kupriyanovich</t>
+  </si>
+  <si>
+    <t>Tamia Byrd</t>
+  </si>
+  <si>
+    <t>Sitnikov Terentiy Yaroslavovich</t>
+  </si>
+  <si>
+    <t>Romanova Yanina Rudol'fovna</t>
+  </si>
+  <si>
+    <t>Marley Mercado</t>
+  </si>
+  <si>
+    <t>Matias Ewing</t>
+  </si>
+  <si>
+    <t>Morgan Carney</t>
+  </si>
+  <si>
+    <t>Heidy Buchanan</t>
+  </si>
+  <si>
+    <t>Potapova Meliana Pavlovna</t>
+  </si>
+  <si>
+    <t>Turov Maksim Tarasovich</t>
+  </si>
+  <si>
+    <t>Uvarova Aza Kimovna</t>
+  </si>
+  <si>
+    <t>Egorova Nomi Martynovna</t>
+  </si>
+  <si>
+    <t>Douglas Sanchez</t>
+  </si>
+  <si>
+    <t>Blinova Ekaterina Arsen'yevna</t>
+  </si>
+  <si>
+    <t>Pakhomova Dionisiya Vasil'yevna</t>
+  </si>
+  <si>
+    <t>Micah Morgan</t>
+  </si>
+  <si>
+    <t>Cassandra Singh</t>
+  </si>
+  <si>
+    <t>Grace Hayden</t>
+  </si>
+  <si>
+    <t>Tret'yakova Mishel' Borisovna</t>
+  </si>
+  <si>
+    <t>Marcelo Cowan</t>
+  </si>
+  <si>
+    <t>Potapova Adelina Yakovovna</t>
+  </si>
+  <si>
+    <t>Bykova Yana Romanovna</t>
+  </si>
+  <si>
+    <t>Dmitrieva Marisha Sozonovna</t>
+  </si>
+  <si>
+    <t>Anaya Gaines</t>
+  </si>
+  <si>
+    <t>Ricardo Yates</t>
+  </si>
+  <si>
+    <t>Isiah Stephens</t>
+  </si>
+  <si>
+    <t>Marlene Brennan</t>
+  </si>
+  <si>
+    <t>Samir Riley</t>
+  </si>
+  <si>
+    <t>Evseev Ignatiy Pavlovich</t>
+  </si>
+  <si>
+    <t>Vorob'yeva Estella Maksovna</t>
+  </si>
+  <si>
+    <t>Krasil'nikova Kseniya Grigor'yevna</t>
+  </si>
+  <si>
+    <t>Pavlova Sandra Sozonovna</t>
+  </si>
+  <si>
+    <t>Ernest Montes</t>
+  </si>
+  <si>
+    <t>Biryukov Korneliy Semenovich</t>
+  </si>
+  <si>
+    <t>Kopylov Denis Irineevich</t>
+  </si>
+  <si>
+    <t>Belozerov Gayane Timurovich</t>
+  </si>
+  <si>
+    <t>Jaycee Gillespie</t>
+  </si>
+  <si>
+    <t>Ellie Berry</t>
+  </si>
+  <si>
     <t>Zueva Ruslana Aristarkhovna</t>
   </si>
   <si>
-    <t>Arkhipova Eva Mikhaylovna</t>
+    <t>Fedoseev Makar Onisimovich</t>
+  </si>
+  <si>
+    <t>Galkin Vadim Fedoseevich</t>
+  </si>
+  <si>
+    <t>Polyakova Al'bina Melsovna</t>
+  </si>
+  <si>
+    <t>Biryukova Zoya Antonovna</t>
+  </si>
+  <si>
+    <t>Blokhin Ignatiy Melsovich</t>
+  </si>
+  <si>
+    <t>Grishin Arsen Andreevich</t>
+  </si>
+  <si>
+    <t>Charity Mccann</t>
+  </si>
+  <si>
+    <t>Kara Sosa</t>
+  </si>
+  <si>
+    <t>Vorontsov Aristarkh Leonidovich</t>
+  </si>
+  <si>
+    <t>Strelkova Yulanta Rostislavovna</t>
+  </si>
+  <si>
+    <t>Khokhlova Faya Vladlenovna</t>
+  </si>
+  <si>
+    <t>Belyakova Nikol' Kimovna</t>
+  </si>
+  <si>
+    <t>Kiselev Al'bert Yakovlevich</t>
+  </si>
+  <si>
+    <t>Myshkina Milisa Vladislavovna</t>
+  </si>
+  <si>
+    <t>Orlando Serrano</t>
+  </si>
+  <si>
+    <t>Lobanov Aleksandr Gennadievich</t>
+  </si>
+  <si>
+    <t>Zykova Ada Aleksandrovna</t>
+  </si>
+  <si>
+    <t>Deven Ramirez</t>
+  </si>
+  <si>
+    <t>Lapin Fedor Vladislavovich</t>
+  </si>
+  <si>
+    <t>Bobyleva Nadezhda Gelas'yevna</t>
+  </si>
+  <si>
+    <t>Alina Carr</t>
+  </si>
+  <si>
+    <t>Sarahi Pennington</t>
+  </si>
+  <si>
+    <t>Maleah Vasquez</t>
+  </si>
+  <si>
+    <t>Jett Chandler</t>
+  </si>
+  <si>
+    <t>Morozova Bella Rudol'fovna</t>
+  </si>
+  <si>
+    <t>Mara Delacruz</t>
+  </si>
+  <si>
+    <t>Walker Conway</t>
+  </si>
+  <si>
+    <t>Logan Hayden</t>
+  </si>
+  <si>
+    <t>Ryland Chaney</t>
+  </si>
+  <si>
+    <t>Gushchin Anton Platonovich</t>
+  </si>
+  <si>
+    <t>Janiyah Mosley</t>
+  </si>
+  <si>
+    <t>Jamal Rasmussen</t>
+  </si>
+  <si>
+    <t>Kiseleva Sil'va Gelas'yevna</t>
+  </si>
+  <si>
+    <t>Brandon Bridges</t>
+  </si>
+  <si>
+    <t>Semenova Zhaklin Denisovna</t>
+  </si>
+  <si>
+    <t>Fedotova Anzhelika Tikhonovna</t>
+  </si>
+  <si>
+    <t>Kolesnikov Luk'yan Georgievich</t>
+  </si>
+  <si>
+    <t>Popova Gabriella Germanovna</t>
+  </si>
+  <si>
+    <t>Bol'shakov Lazar' Yaroslavovich</t>
+  </si>
+  <si>
+    <t>Fedorov Venedikt Protas'yevich</t>
+  </si>
+  <si>
+    <t>Fedoseeva Fanni Alekseevna</t>
+  </si>
+  <si>
+    <t>Artem'yev Adol'f Timofeevich</t>
   </si>
   <si>
     <t>Timothy Mack</t>
   </si>
   <si>
-    <t>Il'ina Milisa Iosifovna</t>
-  </si>
-  <si>
-    <t>Konnor Robertson</t>
-  </si>
-  <si>
-    <t>Kristen Stein</t>
-  </si>
-  <si>
-    <t>Janiyah Mosley</t>
-  </si>
-  <si>
-    <t>Lavrent'yeva Diodora Gennadievna</t>
-  </si>
-  <si>
-    <t>Damian Reese</t>
-  </si>
-  <si>
-    <t>Potapova Adelina Yakovovna</t>
-  </si>
-  <si>
-    <t>Pavlova Sandra Sozonovna</t>
-  </si>
-  <si>
-    <t>Davin Hebert</t>
-  </si>
-  <si>
-    <t>Lobanov Nison Platonovich</t>
-  </si>
-  <si>
-    <t>Grishin Arsen Andreevich</t>
-  </si>
-  <si>
-    <t>Zhdanova Alesya Mikhaylovna</t>
-  </si>
-  <si>
-    <t>Jamal Rasmussen</t>
-  </si>
-  <si>
-    <t>Krasil'nikova Kseniya Grigor'yevna</t>
-  </si>
-  <si>
-    <t>Blinova Ekaterina Arsen'yevna</t>
-  </si>
-  <si>
-    <t>Zhukova Bronislava Al'bertovna</t>
-  </si>
-  <si>
-    <t>Fadeeva Marta Ignat'yevna</t>
-  </si>
-  <si>
-    <t>Kuz'mina Marfa Agafonovna</t>
-  </si>
-  <si>
-    <t>Tamia Byrd</t>
-  </si>
-  <si>
-    <t>Shubina Gelena Davidovna</t>
-  </si>
-  <si>
-    <t>Ray Roman</t>
-  </si>
-  <si>
     <t>Dorofeeva Mila Luk'yevna</t>
   </si>
   <si>
-    <t>Burov Leonid Maksimovich</t>
-  </si>
-  <si>
-    <t>Kazakov Sevast'yan Il'yaovich</t>
-  </si>
-  <si>
-    <t>Samsonova Venera Agafonovna</t>
-  </si>
-  <si>
-    <t>Grishina Kamilla Onisimovna</t>
+    <t>Elisabeth Meyer</t>
+  </si>
+  <si>
+    <t>Ruth Glass</t>
+  </si>
+  <si>
+    <t>Biryukov Al'bert Gelas'yevich</t>
   </si>
   <si>
     <t>Shiryaev Mikhail Artemovich</t>
   </si>
   <si>
-    <t>Bragina Disha Vasil'yevna</t>
-  </si>
-  <si>
-    <t>Bogdanova Yanina Leonidovna</t>
-  </si>
-  <si>
-    <t>Frankie Atkins</t>
-  </si>
-  <si>
-    <t>Geovanni Rojas</t>
-  </si>
-  <si>
-    <t>Dominique Cox</t>
-  </si>
-  <si>
-    <t>Ismael Ochoa</t>
-  </si>
-  <si>
-    <t>Markov Kazimir Tarasovich</t>
-  </si>
-  <si>
-    <t>Matias Ewing</t>
-  </si>
-  <si>
-    <t>Osipov Vladislav Stanislavovich</t>
-  </si>
-  <si>
-    <t>Andrew Schroeder</t>
-  </si>
-  <si>
-    <t>Romanova Yanina Rudol'fovna</t>
-  </si>
-  <si>
-    <t>Jayleen Guerra</t>
-  </si>
-  <si>
-    <t>Marley Mercado</t>
-  </si>
-  <si>
-    <t>Cassandra Singh</t>
-  </si>
-  <si>
-    <t>Fedoseeva Fanni Alekseevna</t>
-  </si>
-  <si>
-    <t>Belyakova Nikol' Kimovna</t>
-  </si>
-  <si>
-    <t>Kyson Torres</t>
-  </si>
-  <si>
-    <t>Kovaleva Elena Melorovna</t>
-  </si>
-  <si>
-    <t>Cora Perez</t>
-  </si>
-  <si>
-    <t>Eduardo Orr</t>
-  </si>
-  <si>
-    <t>Alina Carr</t>
-  </si>
-  <si>
-    <t>Fokin Artem Germannovich</t>
-  </si>
-  <si>
-    <t>Kalinina Bozhena Ulebovna</t>
+    <t>Maddison Velez</t>
   </si>
   <si>
     <t>Konnor Davis</t>
   </si>
   <si>
-    <t>Morozova Bella Rudol'fovna</t>
-  </si>
-  <si>
-    <t>Belov Frol Yulianovich</t>
-  </si>
-  <si>
-    <t>Mara Delacruz</t>
-  </si>
-  <si>
-    <t>Jayden Zamora</t>
-  </si>
-  <si>
-    <t>Bol'shakov Lazar' Yaroslavovich</t>
-  </si>
-  <si>
-    <t>Marcelo Cowan</t>
-  </si>
-  <si>
-    <t>Turov Maksim Tarasovich</t>
-  </si>
-  <si>
-    <t>Ignatova Tat'yana Veniaminovna</t>
-  </si>
-  <si>
-    <t>Lobanov Aleksandr Gennadievich</t>
-  </si>
-  <si>
-    <t>Galkin Feliks Nikitevich</t>
-  </si>
-  <si>
-    <t>Komarova Eshli Timofeevna</t>
-  </si>
-  <si>
-    <t>Fedoseev Makar Onisimovich</t>
-  </si>
-  <si>
-    <t>Novikov Il'ya Tarasovich</t>
-  </si>
-  <si>
-    <t>Micah Sloan</t>
-  </si>
-  <si>
-    <t>Darius Ashley</t>
-  </si>
-  <si>
-    <t>Bespalov Gordey Proklovich</t>
-  </si>
-  <si>
-    <t>Belozerov Gayane Timurovich</t>
-  </si>
-  <si>
-    <t>Rogova Birgit Vyacheslavovna</t>
-  </si>
-  <si>
-    <t>Derick Klein</t>
-  </si>
-  <si>
-    <t>Noel Lopez</t>
-  </si>
-  <si>
-    <t>Solov'yev Semen Valentinovich</t>
-  </si>
-  <si>
-    <t>Avery Daniels</t>
-  </si>
-  <si>
-    <t>Sobolev Azariy Fedoseevich</t>
-  </si>
-  <si>
-    <t>Biryukov Korneliy Semenovich</t>
-  </si>
-  <si>
-    <t>Pavlov Timofey Pavlovich</t>
-  </si>
-  <si>
-    <t>Charity Mccann</t>
-  </si>
-  <si>
     <t>Shchukina Alla Gordeevna</t>
   </si>
   <si>
+    <t>Iris Murillo</t>
+  </si>
+  <si>
+    <t>Samara Mills</t>
+  </si>
+  <si>
     <t>Zhuravlev Petr Yur'yevich</t>
   </si>
   <si>
-    <t>Bogdanova Raya Leonidovna</t>
-  </si>
-  <si>
-    <t>Panfilova Yulanta Veniaminovna</t>
-  </si>
-  <si>
-    <t>Kabanova Georgina Semenovna</t>
-  </si>
-  <si>
-    <t>Orlova Dzhuliya Ignat'yevna</t>
-  </si>
-  <si>
-    <t>Mariyah Colon</t>
-  </si>
-  <si>
-    <t>Doronin Leontiy Panteleymonovich</t>
-  </si>
-  <si>
-    <t>Xander Prince</t>
-  </si>
-  <si>
-    <t>Savel'yev Adol'f Al'bertovich</t>
-  </si>
-  <si>
-    <t>Elisa Caldwell</t>
-  </si>
-  <si>
-    <t>Kulakova Karmelitta Rudol'fovna</t>
-  </si>
-  <si>
-    <t>Rodionov Paramon Vladislavovich</t>
-  </si>
-  <si>
-    <t>Sobolev Donat Aristarkhovich</t>
-  </si>
-  <si>
-    <t>Golubeva Muza Mikhaylovna</t>
-  </si>
-  <si>
-    <t>Semenov Lavr Agafonovich</t>
-  </si>
-  <si>
-    <t>Bobyleva Nadezhda Gelas'yevna</t>
-  </si>
-  <si>
-    <t>Bykova Yana Romanovna</t>
-  </si>
-  <si>
-    <t>Kiseleva Sil'va Gelas'yevna</t>
-  </si>
-  <si>
-    <t>Kaley Bender</t>
-  </si>
-  <si>
-    <t>Likhachev Vitol'd Fedoseevich</t>
-  </si>
-  <si>
-    <t>Martynova Asida Khristoforovna</t>
-  </si>
-  <si>
-    <t>Kopylov Denis Irineevich</t>
-  </si>
-  <si>
-    <t>Anaya Gaines</t>
-  </si>
-  <si>
-    <t>Romanova Nikol' Vladlenovna</t>
-  </si>
-  <si>
-    <t>Scarlett Lowe</t>
-  </si>
-  <si>
-    <t>Fedorov Venedikt Protas'yevich</t>
-  </si>
-  <si>
-    <t>Douglas Sanchez</t>
-  </si>
-  <si>
-    <t>Fedotova Anzhelika Tikhonovna</t>
-  </si>
-  <si>
-    <t>Isaeva Yanina Natanovna</t>
-  </si>
-  <si>
-    <t>Larionova Zlata Tikhonovna</t>
-  </si>
-  <si>
-    <t>Makarova Izabella Maksimovna</t>
-  </si>
-  <si>
-    <t>Vorob'yeva Estella Maksovna</t>
-  </si>
-  <si>
-    <t>Biryukov Al'bert Gelas'yevich</t>
-  </si>
-  <si>
-    <t>Walker Conway</t>
-  </si>
-  <si>
-    <t>Zhuravlev May Nikitevich</t>
-  </si>
-  <si>
-    <t>Deegan Walker</t>
-  </si>
-  <si>
-    <t>Biryukova Zoya Antonovna</t>
-  </si>
-  <si>
-    <t>Afanas'yev Al'fred Ulebovich</t>
-  </si>
-  <si>
-    <t>Semenova Lyudmila Yulianovna</t>
-  </si>
-  <si>
-    <t>Jaycee Gillespie</t>
-  </si>
-  <si>
-    <t>Julissa Webb</t>
-  </si>
-  <si>
-    <t>Myshkin Yustin Daniilovich</t>
-  </si>
-  <si>
-    <t>Hannah Anthony</t>
-  </si>
-  <si>
-    <t>Myshkina Milisa Vladislavovna</t>
-  </si>
-  <si>
-    <t>Abramova Inessa Yulianovna</t>
-  </si>
-  <si>
-    <t>Kennedi Bruce</t>
-  </si>
-  <si>
-    <t>Egorova Nomi Martynovna</t>
-  </si>
-  <si>
-    <t>Griffin Acevedo</t>
-  </si>
-  <si>
-    <t>Jovanny Melton</t>
-  </si>
-  <si>
-    <t>Osipov Efim Sergeevich</t>
-  </si>
-  <si>
-    <t>Ermakova Sil'va Filatovna</t>
+    <t>Peyton Hudson</t>
   </si>
   <si>
     <t>Korolev Illarion Al'vianovich</t>
   </si>
   <si>
-    <t>Nikonov Solomon Timofeevich</t>
-  </si>
-  <si>
-    <t>Elsa Singleton</t>
-  </si>
-  <si>
-    <t>Sergeev Ostap Filippovich</t>
-  </si>
-  <si>
-    <t>Blinov Ernest Georg'yevich</t>
-  </si>
-  <si>
-    <t>Logan Hayden</t>
-  </si>
-  <si>
-    <t>Bridget Mcgrath</t>
-  </si>
-  <si>
-    <t>Lytkin Evdokim Yulianovich</t>
-  </si>
-  <si>
-    <t>Frolov Ippolit Ruslanovich</t>
-  </si>
-  <si>
-    <t>Fedoseev Karl Yakovlevich</t>
-  </si>
-  <si>
-    <t>Bobylev Klement Pavlovich</t>
-  </si>
-  <si>
-    <t>Fomicheva Tereza Kimovna</t>
-  </si>
-  <si>
-    <t>Ulises Colon</t>
-  </si>
-  <si>
-    <t>Polyakova Al'bina Melsovna</t>
-  </si>
-  <si>
-    <t>Antonova Darina Fedoseevna</t>
-  </si>
-  <si>
-    <t>Addisyn Blair</t>
-  </si>
-  <si>
-    <t>Macie Mcintyre</t>
-  </si>
-  <si>
-    <t>Novikova Elizaveta Avdeevna</t>
-  </si>
-  <si>
-    <t>Ricardo Yates</t>
-  </si>
-  <si>
-    <t>Konstantinov Rudol'f Timofeevich</t>
-  </si>
-  <si>
-    <t>Ryder Meadows</t>
-  </si>
-  <si>
-    <t>Zykova Ada Aleksandrovna</t>
-  </si>
-  <si>
-    <t>Ershov Aleksandr El'darovich</t>
-  </si>
-  <si>
-    <t>Silina Eleonora Avksent'yevna</t>
-  </si>
-  <si>
-    <t>Efimov Lavr Germannovich</t>
-  </si>
-  <si>
-    <t>Osipova Gelana Vasil'yevna</t>
-  </si>
-  <si>
-    <t>Kharitonova Neonila Maksovna</t>
-  </si>
-  <si>
-    <t>Phillip Leon</t>
-  </si>
-  <si>
-    <t>Kabanov Matvey Al'vianovich</t>
-  </si>
-  <si>
-    <t>Petukhova Tomila Daniilovna</t>
-  </si>
-  <si>
-    <t>Kuznetsov Robert Gordeevich</t>
-  </si>
-  <si>
-    <t>Smirnov Gennadiy Evgen'yevich</t>
-  </si>
-  <si>
-    <t>Jack Hayes</t>
-  </si>
-  <si>
-    <t>Soboleva Ellina Daniilovna</t>
-  </si>
-  <si>
-    <t>Micah Morgan</t>
-  </si>
-  <si>
-    <t>Veselov Illarion Avksent'yevich</t>
-  </si>
-  <si>
-    <t>Suvorova Aziza Naumovna</t>
-  </si>
-  <si>
-    <t>Smirnova Dzhul'yetta Borisovna</t>
-  </si>
-  <si>
-    <t>Caden Glass</t>
-  </si>
-  <si>
-    <t>Nikitin Zinoviy Alekseevich</t>
-  </si>
-  <si>
-    <t>Popova Gabriella Germanovna</t>
-  </si>
-  <si>
-    <t>Belozerova Kelen Mironovna</t>
-  </si>
-  <si>
-    <t>Rogova Bella Mironovna</t>
-  </si>
-  <si>
-    <t>Elisabeth Meyer</t>
-  </si>
-  <si>
-    <t>Kuznetsov Kondratiy Kupriyanovich</t>
-  </si>
-  <si>
-    <t>Gorshkov Igor' Aristarkhovich</t>
-  </si>
-  <si>
-    <t>Maurice Wilkerson</t>
-  </si>
-  <si>
-    <t>Potapova Meliana Pavlovna</t>
-  </si>
-  <si>
-    <t>Zimina Severina Stanislavovna</t>
-  </si>
-  <si>
-    <t>Kononov Paramon Mikhailovich</t>
-  </si>
-  <si>
-    <t>Maleah Vasquez</t>
-  </si>
-  <si>
-    <t>Isiah Stephens</t>
-  </si>
-  <si>
-    <t>Ivankov El'dar Leonidovich</t>
-  </si>
-  <si>
-    <t>Mishina Larisa Valer'yevna</t>
-  </si>
-  <si>
-    <t>Gerasimov Askol'd Timurovich</t>
-  </si>
-  <si>
-    <t>Samir Riley</t>
-  </si>
-  <si>
-    <t>Orlando Serrano</t>
-  </si>
-  <si>
-    <t>Alisson Moody</t>
-  </si>
-  <si>
-    <t>Kara Sosa</t>
-  </si>
-  <si>
-    <t>Trofimov Vitaliy Mitrofanovich</t>
-  </si>
-  <si>
-    <t>August Howard</t>
-  </si>
-  <si>
-    <t>Elisa Lara</t>
-  </si>
-  <si>
-    <t>Kolesnikov Luk'yan Georgievich</t>
-  </si>
-  <si>
-    <t>Dahlia Bowman</t>
-  </si>
-  <si>
-    <t>Harmony Holder</t>
-  </si>
-  <si>
-    <t>Yakushev Matvey Mikhailovich</t>
-  </si>
-  <si>
-    <t>Peyton Hudson</t>
-  </si>
-  <si>
-    <t>Tret'yakova Mishel' Borisovna</t>
-  </si>
-  <si>
-    <t>Anisimov Rostislav Gordeevich</t>
-  </si>
-  <si>
-    <t>Marlene Brennan</t>
-  </si>
-  <si>
-    <t>Pakhomova Dionisiya Vasil'yevna</t>
-  </si>
-  <si>
-    <t>Ellie Berry</t>
-  </si>
-  <si>
-    <t>Fokina Nora Luk'yevna</t>
-  </si>
-  <si>
-    <t>Semenova Zhaklin Denisovna</t>
-  </si>
-  <si>
-    <t>Sergeeva Avigeya Oskarovna</t>
-  </si>
-  <si>
-    <t>Quinton Ali</t>
-  </si>
-  <si>
-    <t>Jaime Mclean</t>
-  </si>
-  <si>
-    <t>Vasil'yeva Polianna Davidovna</t>
-  </si>
-  <si>
-    <t>Kiselev Al'bert Yakovlevich</t>
-  </si>
-  <si>
-    <t>Jett Chandler</t>
-  </si>
-  <si>
-    <t>Filippova Yunona Mikhailovna</t>
-  </si>
-  <si>
-    <t>Alejandra Burns</t>
-  </si>
-  <si>
-    <t>Albert Faulkner</t>
-  </si>
-  <si>
-    <t>Kosheleva Debora Eduardovna</t>
-  </si>
-  <si>
-    <t>Conner Briggs</t>
-  </si>
-  <si>
-    <t>Dmitrieva Marisha Sozonovna</t>
-  </si>
-  <si>
-    <t>Subbotin Aleksey Tikhonovich</t>
-  </si>
-  <si>
-    <t>Braylon Garner</t>
-  </si>
-  <si>
-    <t>Tobias Gomez</t>
-  </si>
-  <si>
-    <t>Konstantinova Lili Lavrent'yevna</t>
-  </si>
-  <si>
-    <t>Blokhin Ignatiy Melsovich</t>
-  </si>
-  <si>
-    <t>Malik Walton</t>
-  </si>
-  <si>
-    <t>Morgan Carney</t>
-  </si>
-  <si>
-    <t>Nesterova Al'berta Kupriyanovna</t>
-  </si>
-  <si>
-    <t>Heidy Buchanan</t>
-  </si>
-  <si>
-    <t>Javion Cameron</t>
-  </si>
-  <si>
-    <t>Volkova Lyubava Filippovna</t>
-  </si>
-  <si>
-    <t>Petrov Prokhor Protas'yevich</t>
-  </si>
-  <si>
-    <t>Lilly Hanson</t>
-  </si>
-  <si>
-    <t>Quinn Vargas</t>
-  </si>
-  <si>
-    <t>Ernest Montes</t>
-  </si>
-  <si>
-    <t>Artem'yev Adol'f Timofeevich</t>
-  </si>
-  <si>
-    <t>Sharov Artem Svyatoslavovich</t>
-  </si>
-  <si>
-    <t>Evseev Ignatiy Pavlovich</t>
-  </si>
-  <si>
-    <t>Karissa Howell</t>
-  </si>
-  <si>
-    <t>Chloe Cabrera</t>
-  </si>
-  <si>
-    <t>Danika Cardenas</t>
-  </si>
-  <si>
-    <t>Maddison Velez</t>
-  </si>
-  <si>
-    <t>Shchukin German Petrovich</t>
-  </si>
-  <si>
-    <t>Grace Hayden</t>
-  </si>
-  <si>
-    <t>Genevieve Edwards</t>
-  </si>
-  <si>
-    <t>Kostin Vladislav Matveevich</t>
-  </si>
-  <si>
-    <t>Sitnikov Terentiy Yaroslavovich</t>
-  </si>
-  <si>
-    <t>Tyler Lowe</t>
-  </si>
-  <si>
-    <t>Brandon Bridges</t>
-  </si>
-  <si>
-    <t>Ovchinnikov Benedikt Valer'yevich</t>
-  </si>
-  <si>
-    <t>Strelkova Yulanta Rostislavovna</t>
-  </si>
-  <si>
-    <t>Shchukina Danuta Avdeevna</t>
-  </si>
-  <si>
-    <t>Alisson Warner</t>
-  </si>
-  <si>
-    <t>Hector Wells</t>
-  </si>
-  <si>
-    <t>Avdeev Avvakuum Fedorovich</t>
-  </si>
-  <si>
-    <t>Gordeeva Yuna Gennadievna</t>
-  </si>
-  <si>
-    <t>Uvarova Aza Kimovna</t>
-  </si>
-  <si>
-    <t>Panfilov Ernest Artemovich</t>
-  </si>
-  <si>
-    <t>Brycen Weber</t>
-  </si>
-  <si>
-    <t>Mironov Korneliy Panteleymonovich</t>
-  </si>
-  <si>
-    <t>Ruth Glass</t>
-  </si>
-  <si>
-    <t>Samara Mills</t>
-  </si>
-  <si>
-    <t>Vorontsov Aristarkh Leonidovich</t>
-  </si>
-  <si>
-    <t>Ivanova Gera Vladislavovna</t>
-  </si>
-  <si>
-    <t>Sarahi Pennington</t>
-  </si>
-  <si>
-    <t>Konovalov May Makarovich</t>
-  </si>
-  <si>
-    <t>Khokhlova Faya Vladlenovna</t>
-  </si>
-  <si>
-    <t>Lukin Klement Romanovich</t>
-  </si>
-  <si>
-    <t>Matveev Grigoriy Luk'yanovich</t>
-  </si>
-  <si>
-    <t>Zuev Gayane Antoninovich</t>
-  </si>
-  <si>
-    <t>Potapov Arkhip Yulianovich</t>
-  </si>
-  <si>
-    <t>Naumov Apollon Adol'fovich</t>
-  </si>
-  <si>
-    <t>Yudin Kirill Maksimovich</t>
-  </si>
-  <si>
-    <t>Iris Murillo</t>
-  </si>
-  <si>
-    <t>Lapin Fedor Vladislavovich</t>
-  </si>
-  <si>
-    <t>Gordeev Flor Dem'yanovich</t>
-  </si>
-  <si>
-    <t>Ryland Chaney</t>
-  </si>
-  <si>
-    <t>Giovanna Mendez</t>
-  </si>
-  <si>
-    <t>Isla Ayala</t>
-  </si>
-  <si>
-    <t>Kolobova Genrietta Andreevna</t>
-  </si>
-  <si>
-    <t>Cecilia Wade</t>
-  </si>
-  <si>
-    <t>Deven Ramirez</t>
-  </si>
-  <si>
-    <t>Gushchin Anton Platonovich</t>
-  </si>
-  <si>
-    <t>Galkin Vadim Fedoseevich</t>
-  </si>
-  <si>
-    <t>Everett Patterson</t>
-  </si>
-  <si>
-    <t>Zhdanov Efim Georgievich</t>
-  </si>
-  <si>
-    <t>Rayne Russell</t>
-  </si>
-  <si>
-    <t>Blinova Patrisiya Kirillovna</t>
-  </si>
-  <si>
-    <t>Time management, Teamwork, Problem solving</t>
-  </si>
-  <si>
-    <t>Patience, Problem solving, Time management</t>
-  </si>
-  <si>
-    <t>Helpfulness, Open-mindedness</t>
-  </si>
-  <si>
-    <t>Creativity, Research, Problem solving</t>
-  </si>
-  <si>
-    <t>Time management, Patience</t>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Helpfulness, Teamwork</t>
+  </si>
+  <si>
+    <t>Time management, Approachability, Empathy</t>
+  </si>
+  <si>
+    <t>Problem solving, Approachability, Time management</t>
+  </si>
+  <si>
+    <t>Empathy</t>
+  </si>
+  <si>
+    <t>Open-mindedness, Time management, Empathy</t>
+  </si>
+  <si>
+    <t>Patience, Open-mindedness, Approachability</t>
+  </si>
+  <si>
+    <t>Problem solving</t>
+  </si>
+  <si>
+    <t>Helpfulness, Teamwork, Time management</t>
+  </si>
+  <si>
+    <t>Accountability</t>
+  </si>
+  <si>
+    <t>Open-mindedness, Teamwork, Accountability</t>
+  </si>
+  <si>
+    <t>Research, Patience</t>
+  </si>
+  <si>
+    <t>Patience, Empathy, Time management</t>
+  </si>
+  <si>
+    <t>Time management, Creativity, Accountability</t>
+  </si>
+  <si>
+    <t>Time management</t>
+  </si>
+  <si>
+    <t>Time management, Open-mindedness</t>
+  </si>
+  <si>
+    <t>Patience</t>
+  </si>
+  <si>
+    <t>Problem solving, Research</t>
+  </si>
+  <si>
+    <t>Empathy, Problem solving</t>
+  </si>
+  <si>
+    <t>Approachability</t>
+  </si>
+  <si>
+    <t>Helpfulness</t>
+  </si>
+  <si>
+    <t>Empathy, Problem solving, Open-mindedness</t>
+  </si>
+  <si>
+    <t>Empathy, Helpfulness, Problem solving</t>
+  </si>
+  <si>
+    <t>Helpfulness, Communication</t>
+  </si>
+  <si>
+    <t>Approachability, Accountability</t>
+  </si>
+  <si>
+    <t>Problem solving, Empathy, Teamwork</t>
+  </si>
+  <si>
+    <t>Approachability, Teamwork</t>
+  </si>
+  <si>
+    <t>Communication, Time management, Creativity</t>
+  </si>
+  <si>
+    <t>Research, Time management, Empathy</t>
+  </si>
+  <si>
+    <t>Open-mindedness</t>
+  </si>
+  <si>
+    <t>Communication, Creativity, Approachability</t>
   </si>
   <si>
     <t>Research</t>
   </si>
   <si>
-    <t>Problem solving</t>
-  </si>
-  <si>
-    <t>Communication</t>
-  </si>
-  <si>
-    <t>Approachability, Teamwork, Empathy</t>
-  </si>
-  <si>
-    <t>Helpfulness</t>
-  </si>
-  <si>
-    <t>Empathy, Open-mindedness</t>
-  </si>
-  <si>
-    <t>Research, Communication, Helpfulness</t>
+    <t>Problem solving, Teamwork, Patience</t>
+  </si>
+  <si>
+    <t>Open-mindedness, Empathy, Accountability</t>
+  </si>
+  <si>
+    <t>Problem solving, Communication</t>
+  </si>
+  <si>
+    <t>Communication, Accountability</t>
   </si>
   <si>
     <t>Teamwork, Communication</t>
   </si>
   <si>
-    <t>Teamwork, Helpfulness, Open-mindedness</t>
+    <t>Problem solving, Accountability</t>
+  </si>
+  <si>
+    <t>Teamwork, Helpfulness, Research</t>
+  </si>
+  <si>
+    <t>Research, Problem solving</t>
+  </si>
+  <si>
+    <t>Problem solving, Empathy, Time management</t>
+  </si>
+  <si>
+    <t>Open-mindedness, Empathy, Research</t>
+  </si>
+  <si>
+    <t>Helpfulness, Approachability</t>
+  </si>
+  <si>
+    <t>Communication, Empathy, Research</t>
+  </si>
+  <si>
+    <t>Research, Accountability</t>
+  </si>
+  <si>
+    <t>Patience, Teamwork</t>
+  </si>
+  <si>
+    <t>Empathy, Accountability, Problem solving</t>
+  </si>
+  <si>
+    <t>Problem solving, Teamwork</t>
+  </si>
+  <si>
+    <t>Research, Empathy, Accountability</t>
+  </si>
+  <si>
+    <t>Creativity</t>
+  </si>
+  <si>
+    <t>Time management, Accountability, Helpfulness</t>
+  </si>
+  <si>
+    <t>Accountability, Communication, Open-mindedness</t>
+  </si>
+  <si>
+    <t>Creativity, Patience</t>
+  </si>
+  <si>
+    <t>Communication, Patience</t>
+  </si>
+  <si>
+    <t>Teamwork</t>
+  </si>
+  <si>
+    <t>Accountability, Creativity</t>
+  </si>
+  <si>
+    <t>Communication, Problem solving, Helpfulness</t>
+  </si>
+  <si>
+    <t>Problem solving, Accountability, Helpfulness</t>
+  </si>
+  <si>
+    <t>Creativity, Helpfulness</t>
+  </si>
+  <si>
+    <t>Accountability, Communication</t>
+  </si>
+  <si>
+    <t>Helpfulness, Research, Open-mindedness</t>
+  </si>
+  <si>
+    <t>Open-mindedness, Problem solving</t>
+  </si>
+  <si>
+    <t>Open-mindedness, Patience</t>
+  </si>
+  <si>
+    <t>Research, Empathy</t>
+  </si>
+  <si>
+    <t>Creativity, Communication</t>
+  </si>
+  <si>
+    <t>Research, Helpfulness, Creativity</t>
+  </si>
+  <si>
+    <t>Research, Accountability, Time management</t>
+  </si>
+  <si>
+    <t>Patience, Helpfulness</t>
+  </si>
+  <si>
+    <t>Empathy, Communication</t>
+  </si>
+  <si>
+    <t>Communication, Helpfulness</t>
+  </si>
+  <si>
+    <t>Accountability, Patience, Teamwork</t>
+  </si>
+  <si>
+    <t>Creativity, Approachability</t>
+  </si>
+  <si>
+    <t>Time management, Accountability</t>
+  </si>
+  <si>
+    <t>Patience, Approachability, Empathy</t>
+  </si>
+  <si>
+    <t>Communication, Helpfulness, Time management</t>
+  </si>
+  <si>
+    <t>Open-mindedness, Creativity, Accountability</t>
   </si>
   <si>
     <t>Patience, Communication</t>
   </si>
   <si>
+    <t>Accountability, Problem solving, Communication</t>
+  </si>
+  <si>
+    <t>Research, Communication</t>
+  </si>
+  <si>
+    <t>Patience, Creativity, Teamwork</t>
+  </si>
+  <si>
+    <t>Communication, Research, Accountability</t>
+  </si>
+  <si>
+    <t>Teamwork, Problem solving</t>
+  </si>
+  <si>
     <t>Communication, Creativity</t>
   </si>
   <si>
-    <t>Empathy, Accountability, Communication</t>
+    <t>Patience, Accountability, Approachability</t>
+  </si>
+  <si>
+    <t>Helpfulness, Patience, Open-mindedness</t>
+  </si>
+  <si>
+    <t>Empathy, Open-mindedness, Teamwork</t>
+  </si>
+  <si>
+    <t>Teamwork, Approachability</t>
+  </si>
+  <si>
+    <t>Patience, Problem solving</t>
+  </si>
+  <si>
+    <t>Research, Teamwork</t>
+  </si>
+  <si>
+    <t>Research, Time management</t>
+  </si>
+  <si>
+    <t>Research, Teamwork, Accountability</t>
+  </si>
+  <si>
+    <t>Helpfulness, Accountability</t>
+  </si>
+  <si>
+    <t>Teamwork, Creativity</t>
+  </si>
+  <si>
+    <t>Helpfulness, Time management, Approachability</t>
+  </si>
+  <si>
+    <t>Creativity, Helpfulness, Problem solving</t>
+  </si>
+  <si>
+    <t>Helpfulness, Time management, Teamwork</t>
+  </si>
+  <si>
+    <t>Teamwork, Time management, Communication</t>
   </si>
   <si>
     <t>Communication, Open-mindedness</t>
   </si>
   <si>
-    <t>Patience, Teamwork, Approachability</t>
-  </si>
-  <si>
-    <t>Time management, Accountability, Problem solving</t>
-  </si>
-  <si>
-    <t>Accountability, Time management, Research</t>
-  </si>
-  <si>
-    <t>Accountability, Research, Helpfulness</t>
-  </si>
-  <si>
-    <t>Accountability, Helpfulness</t>
-  </si>
-  <si>
-    <t>Time management, Problem solving, Accountability</t>
-  </si>
-  <si>
-    <t>Problem solving, Accountability, Empathy</t>
-  </si>
-  <si>
-    <t>Patience</t>
-  </si>
-  <si>
-    <t>Teamwork, Approachability</t>
-  </si>
-  <si>
-    <t>Open-mindedness, Communication</t>
-  </si>
-  <si>
-    <t>Helpfulness, Accountability</t>
-  </si>
-  <si>
-    <t>Teamwork, Empathy, Accountability</t>
+    <t>Time management, Teamwork</t>
+  </si>
+  <si>
+    <t>Empathy, Creativity</t>
+  </si>
+  <si>
+    <t>Communication, Problem solving, Approachability</t>
+  </si>
+  <si>
+    <t>Accountability, Research, Patience</t>
+  </si>
+  <si>
+    <t>Research, Communication, Accountability</t>
+  </si>
+  <si>
+    <t>Open-mindedness, Teamwork</t>
+  </si>
+  <si>
+    <t>Teamwork, Time management, Patience</t>
+  </si>
+  <si>
+    <t>Patience, Creativity, Accountability</t>
+  </si>
+  <si>
+    <t>Approachability, Time management</t>
+  </si>
+  <si>
+    <t>Approachability, Communication</t>
+  </si>
+  <si>
+    <t>Time management, Communication, Accountability</t>
+  </si>
+  <si>
+    <t>Problem solving, Approachability</t>
+  </si>
+  <si>
+    <t>Accountability, Teamwork, Research</t>
+  </si>
+  <si>
+    <t>Open-mindedness, Research</t>
+  </si>
+  <si>
+    <t>Research, Helpfulness, Communication</t>
+  </si>
+  <si>
+    <t>Accountability, Teamwork</t>
+  </si>
+  <si>
+    <t>Empathy, Research, Teamwork</t>
+  </si>
+  <si>
+    <t>Teamwork, Time management, Problem solving</t>
+  </si>
+  <si>
+    <t>Approachability, Helpfulness, Accountability</t>
+  </si>
+  <si>
+    <t>Research, Open-mindedness, Approachability</t>
+  </si>
+  <si>
+    <t>Creativity, Helpfulness, Patience</t>
+  </si>
+  <si>
+    <t>Empathy, Approachability, Communication</t>
+  </si>
+  <si>
+    <t>Helpfulness, Time management</t>
+  </si>
+  <si>
+    <t>Open-mindedness, Problem solving, Accountability</t>
+  </si>
+  <si>
+    <t>Patience, Approachability, Helpfulness</t>
+  </si>
+  <si>
+    <t>Communication, Problem solving, Teamwork</t>
+  </si>
+  <si>
+    <t>Creativity, Approachability, Empathy</t>
+  </si>
+  <si>
+    <t>Empathy, Time management, Approachability</t>
+  </si>
+  <si>
+    <t>Accountability, Teamwork, Patience</t>
+  </si>
+  <si>
+    <t>Helpfulness, Research</t>
+  </si>
+  <si>
+    <t>Helpfulness, Patience, Approachability</t>
+  </si>
+  <si>
+    <t>Time management, Communication</t>
+  </si>
+  <si>
+    <t>Time management, Creativity</t>
+  </si>
+  <si>
+    <t>Problem solving, Creativity</t>
+  </si>
+  <si>
+    <t>Helpfulness, Patience</t>
+  </si>
+  <si>
+    <t>Patience, Communication, Approachability</t>
+  </si>
+  <si>
+    <t>Accountability, Patience, Research</t>
+  </si>
+  <si>
+    <t>Patience, Open-mindedness</t>
+  </si>
+  <si>
+    <t>Patience, Creativity</t>
+  </si>
+  <si>
+    <t>Open-mindedness, Creativity, Time management</t>
+  </si>
+  <si>
+    <t>Open-mindedness, Approachability, Research</t>
+  </si>
+  <si>
+    <t>Open-mindedness, Accountability</t>
+  </si>
+  <si>
+    <t>Research, Open-mindedness</t>
+  </si>
+  <si>
+    <t>Teamwork, Open-mindedness, Accountability</t>
+  </si>
+  <si>
+    <t>Time management, Creativity, Problem solving</t>
+  </si>
+  <si>
+    <t>Creativity, Approachability, Problem solving</t>
+  </si>
+  <si>
+    <t>Research, Empathy, Teamwork</t>
+  </si>
+  <si>
+    <t>Open-mindedness, Empathy</t>
+  </si>
+  <si>
+    <t>Creativity, Communication, Time management</t>
+  </si>
+  <si>
+    <t>Time management, Creativity, Approachability</t>
   </si>
   <si>
     <t>Creativity, Empathy</t>
   </si>
   <si>
+    <t>Empathy, Approachability, Time management</t>
+  </si>
+  <si>
+    <t>Patience, Helpfulness, Communication</t>
+  </si>
+  <si>
+    <t>Research, Accountability, Approachability</t>
+  </si>
+  <si>
+    <t>Accountability, Time management</t>
+  </si>
+  <si>
+    <t>Problem solving, Empathy</t>
+  </si>
+  <si>
+    <t>Open-mindedness, Approachability</t>
+  </si>
+  <si>
+    <t>Research, Creativity</t>
+  </si>
+  <si>
+    <t>Accountability, Teamwork, Approachability</t>
+  </si>
+  <si>
+    <t>Approachability, Accountability, Time management</t>
+  </si>
+  <si>
     <t>Patience, Empathy</t>
   </si>
   <si>
-    <t>Problem solving, Accountability, Open-mindedness</t>
-  </si>
-  <si>
-    <t>Time management</t>
-  </si>
-  <si>
-    <t>Accountability, Patience</t>
-  </si>
-  <si>
-    <t>Creativity</t>
-  </si>
-  <si>
-    <t>Helpfulness, Empathy, Problem solving</t>
-  </si>
-  <si>
-    <t>Empathy, Time management, Accountability</t>
-  </si>
-  <si>
-    <t>Teamwork</t>
-  </si>
-  <si>
-    <t>Research, Accountability</t>
-  </si>
-  <si>
-    <t>Patience, Empathy, Teamwork</t>
-  </si>
-  <si>
-    <t>Accountability, Approachability</t>
-  </si>
-  <si>
-    <t>Time management, Problem solving</t>
-  </si>
-  <si>
-    <t>Problem solving, Approachability</t>
-  </si>
-  <si>
-    <t>Problem solving, Accountability</t>
-  </si>
-  <si>
-    <t>Research, Empathy</t>
-  </si>
-  <si>
-    <t>Empathy, Research</t>
-  </si>
-  <si>
-    <t>Accountability, Approachability, Teamwork</t>
-  </si>
-  <si>
-    <t>Teamwork, Empathy</t>
-  </si>
-  <si>
-    <t>Open-mindedness, Approachability</t>
-  </si>
-  <si>
-    <t>Empathy, Communication, Approachability</t>
-  </si>
-  <si>
-    <t>Teamwork, Patience</t>
-  </si>
-  <si>
-    <t>Creativity, Helpfulness, Patience</t>
-  </si>
-  <si>
-    <t>Open-mindedness, Creativity</t>
-  </si>
-  <si>
-    <t>Empathy</t>
-  </si>
-  <si>
-    <t>Communication, Teamwork</t>
-  </si>
-  <si>
-    <t>Research, Time management, Helpfulness</t>
-  </si>
-  <si>
-    <t>Creativity, Open-mindedness, Empathy</t>
-  </si>
-  <si>
-    <t>Approachability, Accountability</t>
-  </si>
-  <si>
-    <t>Creativity, Approachability</t>
-  </si>
-  <si>
-    <t>Approachability</t>
-  </si>
-  <si>
-    <t>Accountability, Teamwork, Problem solving</t>
-  </si>
-  <si>
-    <t>Approachability, Patience</t>
-  </si>
-  <si>
-    <t>Creativity, Communication, Research</t>
-  </si>
-  <si>
-    <t>Helpfulness, Communication</t>
-  </si>
-  <si>
-    <t>Research, Accountability, Problem solving</t>
-  </si>
-  <si>
-    <t>Approachability, Time management</t>
-  </si>
-  <si>
-    <t>Empathy, Approachability</t>
-  </si>
-  <si>
-    <t>Approachability, Accountability, Problem solving</t>
-  </si>
-  <si>
-    <t>Empathy, Helpfulness, Research</t>
-  </si>
-  <si>
-    <t>Empathy, Patience, Teamwork</t>
-  </si>
-  <si>
-    <t>Approachability, Teamwork, Time management</t>
-  </si>
-  <si>
-    <t>Problem solving, Helpfulness, Teamwork</t>
-  </si>
-  <si>
-    <t>Patience, Time management</t>
-  </si>
-  <si>
-    <t>Patience, Creativity, Open-mindedness</t>
-  </si>
-  <si>
-    <t>Empathy, Open-mindedness, Helpfulness</t>
-  </si>
-  <si>
-    <t>Research, Teamwork</t>
-  </si>
-  <si>
-    <t>Accountability</t>
-  </si>
-  <si>
-    <t>Accountability, Open-mindedness, Teamwork</t>
-  </si>
-  <si>
-    <t>Empathy, Communication</t>
-  </si>
-  <si>
-    <t>Time management, Open-mindedness</t>
-  </si>
-  <si>
-    <t>Empathy, Problem solving</t>
-  </si>
-  <si>
-    <t>Empathy, Creativity</t>
-  </si>
-  <si>
-    <t>Time management, Open-mindedness, Helpfulness</t>
-  </si>
-  <si>
-    <t>Problem solving, Teamwork</t>
-  </si>
-  <si>
-    <t>Helpfulness, Time management</t>
-  </si>
-  <si>
-    <t>Approachability, Teamwork</t>
-  </si>
-  <si>
-    <t>Problem solving, Teamwork, Creativity</t>
-  </si>
-  <si>
-    <t>Open-mindedness</t>
-  </si>
-  <si>
-    <t>Creativity, Communication</t>
-  </si>
-  <si>
-    <t>Open-mindedness, Empathy, Patience</t>
-  </si>
-  <si>
-    <t>Creativity, Open-mindedness, Patience</t>
-  </si>
-  <si>
-    <t>Creativity, Communication, Problem solving</t>
-  </si>
-  <si>
-    <t>Teamwork, Open-mindedness, Communication</t>
-  </si>
-  <si>
-    <t>Empathy, Accountability</t>
-  </si>
-  <si>
-    <t>Problem solving, Open-mindedness, Research</t>
-  </si>
-  <si>
-    <t>Research, Patience, Communication</t>
-  </si>
-  <si>
-    <t>Teamwork, Open-mindedness</t>
-  </si>
-  <si>
-    <t>Creativity, Teamwork, Helpfulness</t>
-  </si>
-  <si>
-    <t>Time management, Accountability</t>
-  </si>
-  <si>
-    <t>Teamwork, Time management</t>
-  </si>
-  <si>
-    <t>Empathy, Problem solving, Open-mindedness</t>
-  </si>
-  <si>
-    <t>Accountability, Approachability, Research</t>
-  </si>
-  <si>
-    <t>Creativity, Communication, Open-mindedness</t>
-  </si>
-  <si>
-    <t>Approachability, Communication, Helpfulness</t>
-  </si>
-  <si>
-    <t>Research, Communication</t>
-  </si>
-  <si>
-    <t>Empathy, Helpfulness</t>
-  </si>
-  <si>
-    <t>Helpfulness, Approachability</t>
-  </si>
-  <si>
-    <t>Helpfulness, Accountability, Approachability</t>
-  </si>
-  <si>
-    <t>Open-mindedness, Research, Helpfulness</t>
-  </si>
-  <si>
-    <t>Time management, Patience, Open-mindedness</t>
-  </si>
-  <si>
-    <t>Accountability, Teamwork</t>
-  </si>
-  <si>
-    <t>Time management, Teamwork</t>
-  </si>
-  <si>
-    <t>Helpfulness, Approachability, Communication</t>
-  </si>
-  <si>
-    <t>Helpfulness, Creativity</t>
-  </si>
-  <si>
-    <t>Teamwork, Creativity, Communication</t>
-  </si>
-  <si>
-    <t>Creativity, Open-mindedness, Teamwork</t>
-  </si>
-  <si>
-    <t>Teamwork, Problem solving, Open-mindedness</t>
-  </si>
-  <si>
-    <t>Research, Time management</t>
-  </si>
-  <si>
-    <t>Helpfulness, Problem solving</t>
-  </si>
-  <si>
-    <t>Approachability, Communication</t>
-  </si>
-  <si>
-    <t>Creativity, Open-mindedness</t>
-  </si>
-  <si>
-    <t>Creativity, Problem solving</t>
-  </si>
-  <si>
-    <t>Research, Open-mindedness</t>
-  </si>
-  <si>
-    <t>Communication, Teamwork, Empathy</t>
-  </si>
-  <si>
-    <t>Open-mindedness, Problem solving, Empathy</t>
-  </si>
-  <si>
-    <t>Creativity, Accountability, Problem solving</t>
+    <t>Teamwork, Open-mindedness, Problem solving</t>
+  </si>
+  <si>
+    <t>Accountability, Open-mindedness, Time management</t>
+  </si>
+  <si>
+    <t>Helpfulness, Teamwork, Research</t>
   </si>
   <si>
     <t>Accountability, Open-mindedness</t>
   </si>
   <si>
-    <t>Communication, Helpfulness</t>
-  </si>
-  <si>
-    <t>Accountability, Time management</t>
-  </si>
-  <si>
-    <t>Problem solving, Approachability, Communication</t>
-  </si>
-  <si>
-    <t>Patience, Problem solving, Teamwork</t>
-  </si>
-  <si>
-    <t>Teamwork, Accountability, Empathy</t>
-  </si>
-  <si>
-    <t>Problem solving, Patience, Communication</t>
-  </si>
-  <si>
-    <t>Time management, Empathy, Teamwork</t>
-  </si>
-  <si>
-    <t>Empathy, Patience</t>
-  </si>
-  <si>
-    <t>Creativity, Research</t>
-  </si>
-  <si>
-    <t>Empathy, Teamwork</t>
-  </si>
-  <si>
-    <t>Problem solving, Creativity, Patience</t>
-  </si>
-  <si>
-    <t>Problem solving, Empathy, Communication</t>
-  </si>
-  <si>
-    <t>Teamwork, Accountability</t>
-  </si>
-  <si>
-    <t>Problem solving, Communication</t>
-  </si>
-  <si>
-    <t>Teamwork, Accountability, Open-mindedness</t>
-  </si>
-  <si>
-    <t>Accountability, Approachability, Open-mindedness</t>
-  </si>
-  <si>
-    <t>Empathy, Time management, Helpfulness</t>
-  </si>
-  <si>
-    <t>Open-mindedness, Accountability, Patience</t>
-  </si>
-  <si>
-    <t>Patience, Time management, Problem solving</t>
-  </si>
-  <si>
-    <t>Approachability, Helpfulness, Accountability</t>
-  </si>
-  <si>
-    <t>Patience, Problem solving, Open-mindedness</t>
-  </si>
-  <si>
-    <t>Empathy, Open-mindedness, Accountability</t>
-  </si>
-  <si>
-    <t>Problem solving, Accountability, Helpfulness</t>
-  </si>
-  <si>
-    <t>Teamwork, Helpfulness, Problem solving</t>
-  </si>
-  <si>
-    <t>Creativity, Teamwork</t>
-  </si>
-  <si>
-    <t>Open-mindedness, Accountability, Problem solving</t>
-  </si>
-  <si>
-    <t>Open-mindedness, Empathy</t>
-  </si>
-  <si>
-    <t>Creativity, Patience, Empathy</t>
-  </si>
-  <si>
-    <t>Accountability, Teamwork, Helpfulness</t>
+    <t>Problem solving, Accountability, Creativity</t>
   </si>
   <si>
     <t>Teamwork, Research</t>
   </si>
   <si>
-    <t>Approachability, Problem solving</t>
-  </si>
-  <si>
-    <t>Patience, Approachability</t>
-  </si>
-  <si>
-    <t>Patience, Creativity</t>
-  </si>
-  <si>
-    <t>Empathy, Problem solving, Approachability</t>
+    <t>Teamwork, Empathy, Problem solving</t>
+  </si>
+  <si>
+    <t>Accountability, Teamwork, Time management</t>
+  </si>
+  <si>
+    <t>C++, .NET Programming</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>C++, Oracle, Microsoft C#</t>
+  </si>
+  <si>
+    <t>Microsoft C#, .NET Programming, Oracle</t>
+  </si>
+  <si>
+    <t>XML, .NET Programming, JAVA</t>
+  </si>
+  <si>
+    <t>SQL, Microsoft C#, .NET Programming</t>
+  </si>
+  <si>
+    <t>JavaScript, C++</t>
+  </si>
+  <si>
+    <t>JAVA</t>
+  </si>
+  <si>
+    <t>JavaScript, JAVA, Python</t>
+  </si>
+  <si>
+    <t>JavaScript, Python</t>
   </si>
   <si>
     <t>Oracle</t>
   </si>
   <si>
-    <t>C++, .NET Programming, JavaScript</t>
-  </si>
-  <si>
-    <t>Microsoft C#, Linux, JAVA</t>
-  </si>
-  <si>
-    <t>C++, SQL, Microsoft C#</t>
-  </si>
-  <si>
-    <t>Web, Microsoft C#, Python</t>
+    <t>Oracle, JavaScript, Linux</t>
+  </si>
+  <si>
+    <t>XML, .NET Programming, Python</t>
+  </si>
+  <si>
+    <t>XML, Oracle</t>
+  </si>
+  <si>
+    <t>JAVA, JavaScript, Oracle</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Python, .NET Programming</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Oracle, .NET Programming</t>
+  </si>
+  <si>
+    <t>SQL, Python</t>
+  </si>
+  <si>
+    <t>JAVA, Linux</t>
+  </si>
+  <si>
+    <t>Python, C++</t>
+  </si>
+  <si>
+    <t>Linux, XML, C++</t>
+  </si>
+  <si>
+    <t>Microsoft C#</t>
+  </si>
+  <si>
+    <t>JavaScript, SQL</t>
   </si>
   <si>
     <t>.NET Programming</t>
   </si>
   <si>
-    <t>JAVA</t>
-  </si>
-  <si>
     <t>XML, .NET Programming</t>
   </si>
   <si>
-    <t>XML, SQL, Linux</t>
+    <t>.NET Programming, Oracle, XML</t>
+  </si>
+  <si>
+    <t>SQL, JavaScript, XML</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Linux, JavaScript</t>
+  </si>
+  <si>
+    <t>SQL, Linux, JAVA</t>
+  </si>
+  <si>
+    <t>SQL, JAVA, XML</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Linux, Python, .NET Programming</t>
+  </si>
+  <si>
+    <t>Python, XML, JavaScript</t>
+  </si>
+  <si>
+    <t>C++, Linux</t>
+  </si>
+  <si>
+    <t>Microsoft C#, JAVA, Web</t>
+  </si>
+  <si>
+    <t>Microsoft C#, XML, JavaScript</t>
+  </si>
+  <si>
+    <t>Web, JAVA, SQL</t>
+  </si>
+  <si>
+    <t>.NET Programming, JavaScript, Web</t>
+  </si>
+  <si>
+    <t>.NET Programming, C++</t>
+  </si>
+  <si>
+    <t>Web, Python</t>
+  </si>
+  <si>
+    <t>Python, SQL</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>C++, Web, JAVA</t>
+  </si>
+  <si>
+    <t>Microsoft C#, SQL</t>
   </si>
   <si>
     <t>.NET Programming, Python</t>
   </si>
   <si>
-    <t>C++, .NET Programming, Microsoft C#</t>
-  </si>
-  <si>
-    <t>Linux, Web, C++</t>
+    <t>C++, Oracle</t>
+  </si>
+  <si>
+    <t>XML, Python</t>
+  </si>
+  <si>
+    <t>Web, Linux, .NET Programming</t>
+  </si>
+  <si>
+    <t>XML, Linux, C++</t>
+  </si>
+  <si>
+    <t>Python, Web, .NET Programming</t>
+  </si>
+  <si>
+    <t>XML, SQL</t>
+  </si>
+  <si>
+    <t>SQL, Oracle</t>
+  </si>
+  <si>
+    <t>Oracle, Linux, Microsoft C#</t>
+  </si>
+  <si>
+    <t>Oracle, XML</t>
+  </si>
+  <si>
+    <t>SQL, Web</t>
+  </si>
+  <si>
+    <t>Linux, C++, JAVA</t>
+  </si>
+  <si>
+    <t>JAVA, Microsoft C#</t>
+  </si>
+  <si>
+    <t>JAVA, C++, Python</t>
+  </si>
+  <si>
+    <t>XML, Linux, Microsoft C#</t>
+  </si>
+  <si>
+    <t>C++, XML, .NET Programming</t>
+  </si>
+  <si>
+    <t>Python, Linux, SQL</t>
+  </si>
+  <si>
+    <t>.NET Programming, Web</t>
+  </si>
+  <si>
+    <t>Linux, Microsoft C#, Oracle</t>
+  </si>
+  <si>
+    <t>XML, Linux</t>
+  </si>
+  <si>
+    <t>Linux, SQL, Oracle</t>
+  </si>
+  <si>
+    <t>JAVA, Oracle</t>
+  </si>
+  <si>
+    <t>Linux, Oracle</t>
+  </si>
+  <si>
+    <t>SQL, .NET Programming</t>
+  </si>
+  <si>
+    <t>C++, Web, Linux</t>
   </si>
   <si>
     <t>Web, JAVA</t>
   </si>
   <si>
-    <t>JavaScript</t>
-  </si>
-  <si>
-    <t>XML, .NET Programming, Linux</t>
-  </si>
-  <si>
-    <t>XML</t>
-  </si>
-  <si>
-    <t>XML, SQL</t>
-  </si>
-  <si>
-    <t>Microsoft C#, JAVA</t>
-  </si>
-  <si>
-    <t>JAVA, .NET Programming, SQL</t>
-  </si>
-  <si>
-    <t>XML, C++</t>
-  </si>
-  <si>
-    <t>SQL, Linux, C++</t>
-  </si>
-  <si>
-    <t>JAVA, JavaScript, Web</t>
+    <t>.NET Programming, Web, Python</t>
+  </si>
+  <si>
+    <t>Python, Microsoft C#</t>
+  </si>
+  <si>
+    <t>.NET Programming, JavaScript</t>
+  </si>
+  <si>
+    <t>SQL, JavaScript</t>
+  </si>
+  <si>
+    <t>JAVA, C++</t>
+  </si>
+  <si>
+    <t>XML, SQL, Python</t>
+  </si>
+  <si>
+    <t>JAVA, Microsoft C#, C++</t>
+  </si>
+  <si>
+    <t>.NET Programming, XML</t>
+  </si>
+  <si>
+    <t>JAVA, JavaScript</t>
+  </si>
+  <si>
+    <t>.NET Programming, Linux, Web</t>
+  </si>
+  <si>
+    <t>Web, Oracle, Python</t>
+  </si>
+  <si>
+    <t>Linux, Python</t>
+  </si>
+  <si>
+    <t>Web, Microsoft C#, C++</t>
+  </si>
+  <si>
+    <t>.NET Programming, JAVA</t>
+  </si>
+  <si>
+    <t>C++, Microsoft C#</t>
   </si>
   <si>
     <t>JavaScript, SQL, XML</t>
   </si>
   <si>
-    <t>JAVA, Web, SQL</t>
-  </si>
-  <si>
-    <t>Microsoft C#, Python</t>
+    <t>SQL, XML, Python</t>
+  </si>
+  <si>
+    <t>Python, Linux, C++</t>
+  </si>
+  <si>
+    <t>XML, Microsoft C#</t>
+  </si>
+  <si>
+    <t>XML, Microsoft C#, C++</t>
+  </si>
+  <si>
+    <t>Web, C++</t>
+  </si>
+  <si>
+    <t>Python, Linux, .NET Programming</t>
+  </si>
+  <si>
+    <t>Microsoft C#, C++</t>
+  </si>
+  <si>
+    <t>Web, Oracle, Linux</t>
+  </si>
+  <si>
+    <t>Oracle, Python, SQL</t>
+  </si>
+  <si>
+    <t>JavaScript, JAVA</t>
+  </si>
+  <si>
+    <t>Web, JavaScript, Linux</t>
+  </si>
+  <si>
+    <t>JavaScript, SQL, Web</t>
+  </si>
+  <si>
+    <t>Microsoft C#, JavaScript, Python</t>
+  </si>
+  <si>
+    <t>C++, Oracle, JAVA</t>
+  </si>
+  <si>
+    <t>Oracle, C++</t>
+  </si>
+  <si>
+    <t>JAVA, SQL</t>
+  </si>
+  <si>
+    <t>C++, JAVA, Python</t>
+  </si>
+  <si>
+    <t>C++, .NET Programming, Web</t>
+  </si>
+  <si>
+    <t>Microsoft C#, XML</t>
+  </si>
+  <si>
+    <t>Python, Web</t>
   </si>
   <si>
     <t>JavaScript, .NET Programming</t>
   </si>
   <si>
-    <t>Microsoft C#, Oracle, Linux</t>
+    <t>JavaScript, Microsoft C#, JAVA</t>
+  </si>
+  <si>
+    <t>C++, Linux, Web</t>
+  </si>
+  <si>
+    <t>Linux, JAVA, XML</t>
+  </si>
+  <si>
+    <t>XML, Microsoft C#, .NET Programming</t>
+  </si>
+  <si>
+    <t>JAVA, Python</t>
+  </si>
+  <si>
+    <t>.NET Programming, SQL</t>
+  </si>
+  <si>
+    <t>XML, Python, Microsoft C#</t>
+  </si>
+  <si>
+    <t>JavaScript, Oracle, .NET Programming</t>
+  </si>
+  <si>
+    <t>JAVA, XML</t>
+  </si>
+  <si>
+    <t>XML, SQL, C++</t>
+  </si>
+  <si>
+    <t>C++, Python, SQL</t>
+  </si>
+  <si>
+    <t>Microsoft C#, Oracle</t>
+  </si>
+  <si>
+    <t>C++, Microsoft C#, SQL</t>
+  </si>
+  <si>
+    <t>Python, C++, .NET Programming</t>
+  </si>
+  <si>
+    <t>C++, JavaScript</t>
+  </si>
+  <si>
+    <t>Linux, SQL</t>
+  </si>
+  <si>
+    <t>JAVA, .NET Programming, Python</t>
+  </si>
+  <si>
+    <t>Python, C++, Linux</t>
+  </si>
+  <si>
+    <t>XML, Linux, SQL</t>
+  </si>
+  <si>
+    <t>.NET Programming, Microsoft C#</t>
   </si>
   <si>
     <t>Oracle, Linux</t>
   </si>
   <si>
-    <t>JAVA, SQL</t>
+    <t>XML, JAVA</t>
+  </si>
+  <si>
+    <t>JavaScript, XML, Web</t>
+  </si>
+  <si>
+    <t>JavaScript, Microsoft C#, XML</t>
+  </si>
+  <si>
+    <t>C++, SQL</t>
+  </si>
+  <si>
+    <t>JavaScript, Oracle, Python</t>
+  </si>
+  <si>
+    <t>Web, JavaScript, C++</t>
+  </si>
+  <si>
+    <t>Python, JAVA, Linux</t>
+  </si>
+  <si>
+    <t>Linux, SQL, C++</t>
+  </si>
+  <si>
+    <t>Oracle, Web, JavaScript</t>
+  </si>
+  <si>
+    <t>Web, C++, Oracle</t>
+  </si>
+  <si>
+    <t>Linux, Microsoft C#</t>
+  </si>
+  <si>
+    <t>JavaScript, Linux</t>
+  </si>
+  <si>
+    <t>Python, JavaScript</t>
+  </si>
+  <si>
+    <t>Oracle, .NET Programming, Microsoft C#</t>
+  </si>
+  <si>
+    <t>SQL, Microsoft C#, C++</t>
+  </si>
+  <si>
+    <t>Python, Oracle, JAVA</t>
+  </si>
+  <si>
+    <t>.NET Programming, Oracle</t>
   </si>
   <si>
     <t>Web, .NET Programming</t>
   </si>
   <si>
-    <t>Python, .NET Programming, C++</t>
-  </si>
-  <si>
-    <t>Linux</t>
-  </si>
-  <si>
-    <t>.NET Programming, JavaScript, C++</t>
-  </si>
-  <si>
-    <t>Microsoft C#, SQL, .NET Programming</t>
-  </si>
-  <si>
-    <t>SQL, JavaScript, Linux</t>
-  </si>
-  <si>
-    <t>SQL, JAVA</t>
-  </si>
-  <si>
-    <t>SQL, .NET Programming, JavaScript</t>
-  </si>
-  <si>
-    <t>C++, Oracle</t>
-  </si>
-  <si>
-    <t>SQL, Microsoft C#, JAVA</t>
-  </si>
-  <si>
-    <t>C++, JAVA</t>
-  </si>
-  <si>
-    <t>Web</t>
-  </si>
-  <si>
-    <t>.NET Programming, Linux, XML</t>
-  </si>
-  <si>
-    <t>.NET Programming, Oracle, Linux</t>
-  </si>
-  <si>
-    <t>Web, Microsoft C#, Oracle</t>
-  </si>
-  <si>
-    <t>SQL, Linux</t>
-  </si>
-  <si>
-    <t>Web, C++, .NET Programming</t>
-  </si>
-  <si>
-    <t>Oracle, JavaScript</t>
-  </si>
-  <si>
-    <t>Linux, JavaScript</t>
-  </si>
-  <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>XML, Web, Linux</t>
-  </si>
-  <si>
-    <t>Oracle, .NET Programming</t>
-  </si>
-  <si>
-    <t>Microsoft C#</t>
-  </si>
-  <si>
-    <t>Web, SQL, Python</t>
-  </si>
-  <si>
-    <t>JAVA, SQL, XML</t>
-  </si>
-  <si>
-    <t>JavaScript, .NET Programming, Python</t>
-  </si>
-  <si>
-    <t>Microsoft C#, Oracle</t>
-  </si>
-  <si>
-    <t>Linux, SQL</t>
-  </si>
-  <si>
-    <t>XML, Microsoft C#, C++</t>
-  </si>
-  <si>
-    <t>C++, Linux, Microsoft C#</t>
-  </si>
-  <si>
-    <t>C++, JavaScript</t>
-  </si>
-  <si>
-    <t>Python, Oracle, Microsoft C#</t>
-  </si>
-  <si>
-    <t>C++</t>
-  </si>
-  <si>
-    <t>.NET Programming, JAVA</t>
-  </si>
-  <si>
-    <t>JavaScript, Web</t>
-  </si>
-  <si>
-    <t>.NET Programming, C++</t>
-  </si>
-  <si>
-    <t>XML, Oracle, SQL</t>
-  </si>
-  <si>
-    <t>Microsoft C#, SQL, C++</t>
-  </si>
-  <si>
-    <t>C++, Microsoft C#</t>
-  </si>
-  <si>
-    <t>C++, Microsoft C#, JavaScript</t>
-  </si>
-  <si>
-    <t>C++, Web, XML</t>
-  </si>
-  <si>
-    <t>Python, .NET Programming, Oracle</t>
-  </si>
-  <si>
-    <t>JAVA, XML</t>
-  </si>
-  <si>
-    <t>SQL, Python</t>
-  </si>
-  <si>
-    <t>JAVA, JavaScript, Python</t>
-  </si>
-  <si>
-    <t>Microsoft C#, Oracle, JAVA</t>
-  </si>
-  <si>
-    <t>Linux, C++</t>
-  </si>
-  <si>
-    <t>Python, JavaScript</t>
-  </si>
-  <si>
-    <t>XML, JAVA, Python</t>
-  </si>
-  <si>
-    <t>Web, Microsoft C#</t>
-  </si>
-  <si>
-    <t>JavaScript, Linux</t>
-  </si>
-  <si>
-    <t>Linux, JAVA, Web</t>
-  </si>
-  <si>
-    <t>SQL</t>
-  </si>
-  <si>
-    <t>.NET Programming, Microsoft C#, Oracle</t>
-  </si>
-  <si>
-    <t>JavaScript, Oracle</t>
-  </si>
-  <si>
-    <t>.NET Programming, SQL, Linux</t>
-  </si>
-  <si>
-    <t>Python, SQL, Linux</t>
-  </si>
-  <si>
-    <t>XML, Microsoft C#</t>
-  </si>
-  <si>
-    <t>Linux, Microsoft C#</t>
+    <t>Microsoft C#, Web</t>
+  </si>
+  <si>
+    <t>.NET Programming, JAVA, C++</t>
   </si>
   <si>
     <t>Web, Linux</t>
   </si>
   <si>
-    <t>Microsoft C#, JAVA, C++</t>
-  </si>
-  <si>
-    <t>JAVA, Microsoft C#</t>
-  </si>
-  <si>
-    <t>C++, Linux</t>
-  </si>
-  <si>
-    <t>Oracle, .NET Programming, SQL</t>
-  </si>
-  <si>
-    <t>XML, Oracle, Python</t>
-  </si>
-  <si>
-    <t>JavaScript, C++</t>
-  </si>
-  <si>
-    <t>Oracle, Web, Microsoft C#</t>
-  </si>
-  <si>
-    <t>SQL, XML, JAVA</t>
-  </si>
-  <si>
-    <t>Web, XML</t>
-  </si>
-  <si>
-    <t>JAVA, Oracle</t>
-  </si>
-  <si>
-    <t>XML, JavaScript, JAVA</t>
-  </si>
-  <si>
-    <t>Python, Microsoft C#</t>
-  </si>
-  <si>
-    <t>.NET Programming, JavaScript, Microsoft C#</t>
-  </si>
-  <si>
-    <t>Oracle, Microsoft C#, Python</t>
-  </si>
-  <si>
-    <t>C++, JavaScript, Web</t>
-  </si>
-  <si>
-    <t>SQL, JAVA, .NET Programming</t>
-  </si>
-  <si>
-    <t>JAVA, C++</t>
-  </si>
-  <si>
-    <t>JAVA, C++, JavaScript</t>
-  </si>
-  <si>
-    <t>JAVA, .NET Programming</t>
-  </si>
-  <si>
-    <t>Microsoft C#, XML</t>
-  </si>
-  <si>
-    <t>JavaScript, C++, Microsoft C#</t>
-  </si>
-  <si>
-    <t>.NET Programming, SQL</t>
-  </si>
-  <si>
-    <t>Linux, XML, C++</t>
-  </si>
-  <si>
-    <t>Linux, .NET Programming</t>
-  </si>
-  <si>
-    <t>SQL, Linux, JavaScript</t>
-  </si>
-  <si>
-    <t>Web, Linux, SQL</t>
-  </si>
-  <si>
-    <t>XML, Microsoft C#, SQL</t>
-  </si>
-  <si>
-    <t>C++, Oracle, Linux</t>
-  </si>
-  <si>
-    <t>Python, .NET Programming</t>
-  </si>
-  <si>
-    <t>SQL, C++, Python</t>
-  </si>
-  <si>
-    <t>XML, JavaScript</t>
-  </si>
-  <si>
-    <t>Web, JavaScript</t>
-  </si>
-  <si>
-    <t>Python, XML, C++</t>
-  </si>
-  <si>
-    <t>XML, Linux</t>
-  </si>
-  <si>
-    <t>SQL, .NET Programming</t>
-  </si>
-  <si>
-    <t>XML, C++, SQL</t>
-  </si>
-  <si>
-    <t>C++, JavaScript, Microsoft C#</t>
-  </si>
-  <si>
-    <t>XML, JAVA, Oracle</t>
-  </si>
-  <si>
-    <t>.NET Programming, Python, JavaScript</t>
-  </si>
-  <si>
-    <t>JavaScript, SQL, .NET Programming</t>
-  </si>
-  <si>
-    <t>C++, SQL, Oracle</t>
-  </si>
-  <si>
-    <t>Linux, XML</t>
-  </si>
-  <si>
-    <t>JavaScript, Python, Linux</t>
-  </si>
-  <si>
-    <t>JAVA, Linux, Web</t>
-  </si>
-  <si>
-    <t>C++, .NET Programming</t>
-  </si>
-  <si>
-    <t>C++, JAVA, Web</t>
-  </si>
-  <si>
-    <t>Oracle, Python, XML</t>
-  </si>
-  <si>
-    <t>.NET Programming, Web</t>
-  </si>
-  <si>
-    <t>Microsoft C#, JavaScript</t>
-  </si>
-  <si>
-    <t>XML, Linux, Oracle</t>
-  </si>
-  <si>
-    <t>JAVA, Python, Linux</t>
-  </si>
-  <si>
-    <t>SQL, XML</t>
-  </si>
-  <si>
-    <t>Web, JavaScript, SQL</t>
-  </si>
-  <si>
-    <t>Web, Python, C++</t>
-  </si>
-  <si>
-    <t>Microsoft C#, C++</t>
-  </si>
-  <si>
-    <t>XML, Oracle, Web</t>
-  </si>
-  <si>
-    <t>C++, Oracle, JAVA</t>
-  </si>
-  <si>
-    <t>Python, Oracle, JAVA</t>
-  </si>
-  <si>
-    <t>.NET Programming, Microsoft C#, XML</t>
-  </si>
-  <si>
-    <t>JAVA, XML, Web</t>
-  </si>
-  <si>
-    <t>Linux, Web, XML</t>
-  </si>
-  <si>
-    <t>Linux, XML, Oracle</t>
-  </si>
-  <si>
-    <t>SQL, Web, JAVA</t>
-  </si>
-  <si>
-    <t>Microsoft C#, .NET Programming</t>
-  </si>
-  <si>
-    <t>SQL, .NET Programming, C++</t>
-  </si>
-  <si>
-    <t>Microsoft C#, SQL</t>
-  </si>
-  <si>
-    <t>JavaScript, .NET Programming, SQL</t>
-  </si>
-  <si>
-    <t>Web, XML, Python</t>
-  </si>
-  <si>
-    <t>JavaScript, Python, C++</t>
-  </si>
-  <si>
-    <t>Python, JAVA, SQL</t>
-  </si>
-  <si>
-    <t>Web, Oracle, SQL</t>
-  </si>
-  <si>
-    <t>Microsoft C#, Web</t>
-  </si>
-  <si>
-    <t>Python, C++, XML</t>
-  </si>
-  <si>
-    <t>JavaScript, SQL, C++</t>
-  </si>
-  <si>
-    <t>Oracle, JAVA</t>
-  </si>
-  <si>
-    <t>JavaScript, JAVA</t>
-  </si>
-  <si>
-    <t>SQL, Microsoft C#</t>
-  </si>
-  <si>
-    <t>Microsoft C#, Oracle, C++</t>
-  </si>
-  <si>
-    <t>Oracle, XML</t>
-  </si>
-  <si>
-    <t>C++, Python, Microsoft C#</t>
+    <t>XML, Oracle, Linux</t>
+  </si>
+  <si>
+    <t>Microsoft C#, Linux</t>
+  </si>
+  <si>
+    <t>XML, Web</t>
+  </si>
+  <si>
+    <t>Oracle, JavaScript, XML</t>
+  </si>
+  <si>
+    <t>C++, SQL, Linux</t>
+  </si>
+  <si>
+    <t>Web, JAVA, .NET Programming</t>
+  </si>
+  <si>
+    <t>Oracle, JAVA, Web</t>
   </si>
 </sst>
 </file>
@@ -2262,7 +2250,7 @@
         <v>290</v>
       </c>
       <c r="D2" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2276,7 +2264,7 @@
         <v>291</v>
       </c>
       <c r="D3" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2290,7 +2278,7 @@
         <v>292</v>
       </c>
       <c r="D4" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2304,7 +2292,7 @@
         <v>293</v>
       </c>
       <c r="D5" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2318,7 +2306,7 @@
         <v>294</v>
       </c>
       <c r="D6" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2332,7 +2320,7 @@
         <v>295</v>
       </c>
       <c r="D7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2346,7 +2334,7 @@
         <v>296</v>
       </c>
       <c r="D8" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2360,7 +2348,7 @@
         <v>297</v>
       </c>
       <c r="D9" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2374,7 +2362,7 @@
         <v>298</v>
       </c>
       <c r="D10" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2388,7 +2376,7 @@
         <v>299</v>
       </c>
       <c r="D11" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2402,7 +2390,7 @@
         <v>300</v>
       </c>
       <c r="D12" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2416,7 +2404,7 @@
         <v>301</v>
       </c>
       <c r="D13" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2427,10 +2415,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D14" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2441,10 +2429,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D15" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2455,10 +2443,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D16" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2469,10 +2457,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="D17" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2486,7 +2474,7 @@
         <v>305</v>
       </c>
       <c r="D18" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2500,7 +2488,7 @@
         <v>306</v>
       </c>
       <c r="D19" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2511,10 +2499,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D20" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2525,10 +2513,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D21" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2539,10 +2527,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D22" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2553,10 +2541,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D23" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2567,10 +2555,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="D24" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2581,10 +2569,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D25" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2595,10 +2583,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D26" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2609,10 +2597,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D27" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2623,10 +2611,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="D28" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2637,10 +2625,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D29" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2651,10 +2639,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D30" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2665,10 +2653,10 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="D31" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2679,10 +2667,10 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D32" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2693,10 +2681,10 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D33" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2707,10 +2695,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D34" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2721,10 +2709,10 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D35" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2735,10 +2723,10 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="D36" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2749,10 +2737,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D37" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2763,10 +2751,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="D38" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2777,10 +2765,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="D39" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2791,10 +2779,10 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D40" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2805,10 +2793,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D41" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2819,10 +2807,10 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D42" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2833,10 +2821,10 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D43" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2847,10 +2835,10 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="D44" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2861,10 +2849,10 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="D45" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2875,10 +2863,10 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D46" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2889,10 +2877,10 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="D47" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2903,10 +2891,10 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D48" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2917,10 +2905,10 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="D49" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2931,10 +2919,10 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="D50" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2945,10 +2933,10 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D51" t="s">
-        <v>492</v>
+        <v>458</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2959,10 +2947,10 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D52" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2973,10 +2961,10 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D53" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2987,10 +2975,10 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="D54" t="s">
-        <v>457</v>
+        <v>499</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3001,10 +2989,10 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="D55" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3015,10 +3003,10 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D56" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3029,10 +3017,10 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D57" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3043,10 +3031,10 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D58" t="s">
-        <v>469</v>
+        <v>503</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3057,10 +3045,10 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="D59" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3071,10 +3059,10 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="D60" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3085,10 +3073,10 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="D61" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3099,10 +3087,10 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D62" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3113,10 +3101,10 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="D63" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3127,10 +3115,10 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="D64" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3141,10 +3129,10 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D65" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3155,10 +3143,10 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="D66" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3169,10 +3157,10 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="D67" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3183,10 +3171,10 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="D68" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3197,10 +3185,10 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="D69" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3211,10 +3199,10 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="D70" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3225,10 +3213,10 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="D71" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3239,10 +3227,10 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="D72" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3253,10 +3241,10 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="D73" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3267,10 +3255,10 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D74" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3281,10 +3269,10 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="D75" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3295,10 +3283,10 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D76" t="s">
-        <v>465</v>
+        <v>515</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3309,10 +3297,10 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="D77" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3337,10 +3325,10 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D79" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3351,10 +3339,10 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D80" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3365,10 +3353,10 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="D81" t="s">
-        <v>509</v>
+        <v>468</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3379,10 +3367,10 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D82" t="s">
-        <v>467</v>
+        <v>517</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3393,10 +3381,10 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="D83" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3407,10 +3395,10 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D84" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3421,10 +3409,10 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D85" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3435,10 +3423,10 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D86" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3449,10 +3437,10 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D87" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3463,10 +3451,10 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D88" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3477,10 +3465,10 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D89" t="s">
-        <v>515</v>
+        <v>481</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3491,10 +3479,10 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>297</v>
+        <v>350</v>
       </c>
       <c r="D90" t="s">
-        <v>483</v>
+        <v>522</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3505,10 +3493,10 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>295</v>
+        <v>351</v>
       </c>
       <c r="D91" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3519,10 +3507,10 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>296</v>
+        <v>352</v>
       </c>
       <c r="D92" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3533,10 +3521,10 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>357</v>
+        <v>290</v>
       </c>
       <c r="D93" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3547,10 +3535,10 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D94" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3561,7 +3549,7 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>358</v>
+        <v>296</v>
       </c>
       <c r="D95" t="s">
         <v>519</v>
@@ -3575,10 +3563,10 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D96" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3589,10 +3577,10 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="D97" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3603,10 +3591,10 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="D98" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3617,10 +3605,10 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>349</v>
+        <v>290</v>
       </c>
       <c r="D99" t="s">
-        <v>523</v>
+        <v>483</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3631,10 +3619,10 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>296</v>
+        <v>354</v>
       </c>
       <c r="D100" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3645,10 +3633,10 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>361</v>
+        <v>299</v>
       </c>
       <c r="D101" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3659,10 +3647,10 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>362</v>
+        <v>297</v>
       </c>
       <c r="D102" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3673,10 +3661,10 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="D103" t="s">
-        <v>492</v>
+        <v>517</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3687,10 +3675,10 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="D104" t="s">
-        <v>525</v>
+        <v>471</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3701,10 +3689,10 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D105" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3715,10 +3703,10 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D106" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3729,10 +3717,10 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D107" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3743,10 +3731,10 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D108" t="s">
-        <v>528</v>
+        <v>473</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3757,10 +3745,10 @@
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D109" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3771,10 +3759,10 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D110" t="s">
-        <v>530</v>
+        <v>459</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3785,10 +3773,10 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D111" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3799,10 +3787,10 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="D112" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3813,10 +3801,10 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D113" t="s">
-        <v>483</v>
+        <v>515</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3827,10 +3815,10 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>370</v>
+        <v>304</v>
       </c>
       <c r="D114" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3841,10 +3829,10 @@
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>371</v>
+        <v>319</v>
       </c>
       <c r="D115" t="s">
-        <v>532</v>
+        <v>491</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3855,10 +3843,10 @@
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D116" t="s">
-        <v>533</v>
+        <v>459</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3869,10 +3857,10 @@
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>295</v>
+        <v>367</v>
       </c>
       <c r="D117" t="s">
-        <v>534</v>
+        <v>473</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3883,10 +3871,10 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>373</v>
+        <v>319</v>
       </c>
       <c r="D118" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3897,10 +3885,10 @@
         <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D119" t="s">
-        <v>514</v>
+        <v>468</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3911,10 +3899,10 @@
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D120" t="s">
-        <v>535</v>
+        <v>500</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3925,10 +3913,10 @@
         <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D121" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3939,10 +3927,10 @@
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="D122" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3953,10 +3941,10 @@
         <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="D123" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3967,10 +3955,10 @@
         <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>378</v>
+        <v>299</v>
       </c>
       <c r="D124" t="s">
-        <v>452</v>
+        <v>534</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3981,10 +3969,10 @@
         <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D125" t="s">
-        <v>536</v>
+        <v>483</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3995,10 +3983,10 @@
         <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D126" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4009,7 +3997,7 @@
         <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D127" t="s">
         <v>483</v>
@@ -4023,10 +4011,10 @@
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="D128" t="s">
-        <v>465</v>
+        <v>536</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4037,10 +4025,10 @@
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>382</v>
+        <v>306</v>
       </c>
       <c r="D129" t="s">
-        <v>538</v>
+        <v>468</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4051,10 +4039,10 @@
         <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="D130" t="s">
-        <v>500</v>
+        <v>537</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4065,10 +4053,10 @@
         <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D131" t="s">
-        <v>503</v>
+        <v>538</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4079,10 +4067,10 @@
         <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D132" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4093,10 +4081,10 @@
         <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="D133" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4107,10 +4095,10 @@
         <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D134" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4121,10 +4109,10 @@
         <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D135" t="s">
-        <v>483</v>
+        <v>542</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4135,10 +4123,10 @@
         <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="D136" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4149,10 +4137,10 @@
         <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D137" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4163,10 +4151,10 @@
         <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="D138" t="s">
-        <v>541</v>
+        <v>506</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4177,10 +4165,10 @@
         <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="D139" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4191,10 +4179,10 @@
         <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D140" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4205,10 +4193,10 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D141" t="s">
-        <v>544</v>
+        <v>464</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4219,10 +4207,10 @@
         <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="D142" t="s">
-        <v>513</v>
+        <v>546</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4233,10 +4221,10 @@
         <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="D143" t="s">
-        <v>467</v>
+        <v>547</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4247,10 +4235,10 @@
         <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>328</v>
+        <v>381</v>
       </c>
       <c r="D144" t="s">
-        <v>545</v>
+        <v>473</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4261,10 +4249,10 @@
         <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>329</v>
+        <v>382</v>
       </c>
       <c r="D145" t="s">
-        <v>546</v>
+        <v>477</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4275,10 +4263,10 @@
         <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="D146" t="s">
-        <v>458</v>
+        <v>548</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4289,10 +4277,10 @@
         <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="D147" t="s">
-        <v>500</v>
+        <v>549</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4303,10 +4291,10 @@
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D148" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4317,10 +4305,10 @@
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
       <c r="D149" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4331,10 +4319,10 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="D150" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4345,10 +4333,10 @@
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>389</v>
+        <v>299</v>
       </c>
       <c r="D151" t="s">
-        <v>548</v>
+        <v>464</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4359,10 +4347,10 @@
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D152" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4373,10 +4361,10 @@
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D153" t="s">
-        <v>503</v>
+        <v>546</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4387,10 +4375,10 @@
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="D154" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4401,10 +4389,10 @@
         <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D155" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4415,10 +4403,10 @@
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>393</v>
+        <v>321</v>
       </c>
       <c r="D156" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4429,10 +4417,10 @@
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="D157" t="s">
-        <v>552</v>
+        <v>473</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4443,10 +4431,10 @@
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>295</v>
+        <v>391</v>
       </c>
       <c r="D158" t="s">
-        <v>465</v>
+        <v>555</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4457,10 +4445,10 @@
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>323</v>
+        <v>392</v>
       </c>
       <c r="D159" t="s">
-        <v>511</v>
+        <v>459</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4471,10 +4459,10 @@
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>315</v>
+        <v>393</v>
       </c>
       <c r="D160" t="s">
-        <v>553</v>
+        <v>478</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4485,10 +4473,10 @@
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="D161" t="s">
-        <v>503</v>
+        <v>556</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4499,10 +4487,10 @@
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>334</v>
+        <v>394</v>
       </c>
       <c r="D162" t="s">
-        <v>554</v>
+        <v>465</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4513,10 +4501,10 @@
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="D163" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4530,7 +4518,7 @@
         <v>395</v>
       </c>
       <c r="D164" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4544,7 +4532,7 @@
         <v>396</v>
       </c>
       <c r="D165" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4555,10 +4543,10 @@
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>361</v>
+        <v>290</v>
       </c>
       <c r="D166" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4572,7 +4560,7 @@
         <v>397</v>
       </c>
       <c r="D167" t="s">
-        <v>458</v>
+        <v>553</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4586,7 +4574,7 @@
         <v>398</v>
       </c>
       <c r="D168" t="s">
-        <v>458</v>
+        <v>559</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4597,10 +4585,10 @@
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>315</v>
+        <v>399</v>
       </c>
       <c r="D169" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4611,10 +4599,10 @@
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="D170" t="s">
-        <v>538</v>
+        <v>561</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4625,10 +4613,10 @@
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>299</v>
+        <v>400</v>
       </c>
       <c r="D171" t="s">
-        <v>558</v>
+        <v>457</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4639,10 +4627,10 @@
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D172" t="s">
-        <v>481</v>
+        <v>562</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4653,10 +4641,10 @@
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>296</v>
+        <v>368</v>
       </c>
       <c r="D173" t="s">
-        <v>533</v>
+        <v>502</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4667,10 +4655,10 @@
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="D174" t="s">
-        <v>559</v>
+        <v>514</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4681,10 +4669,10 @@
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>401</v>
+        <v>310</v>
       </c>
       <c r="D175" t="s">
-        <v>515</v>
+        <v>563</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4695,10 +4683,10 @@
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="D176" t="s">
-        <v>560</v>
+        <v>488</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4709,10 +4697,10 @@
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>402</v>
+        <v>339</v>
       </c>
       <c r="D177" t="s">
-        <v>513</v>
+        <v>564</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4723,10 +4711,10 @@
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="D178" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4737,10 +4725,10 @@
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="D179" t="s">
-        <v>561</v>
+        <v>459</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4751,10 +4739,10 @@
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="D180" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4765,10 +4753,10 @@
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>403</v>
+        <v>304</v>
       </c>
       <c r="D181" t="s">
-        <v>513</v>
+        <v>565</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4779,10 +4767,10 @@
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>297</v>
+        <v>402</v>
       </c>
       <c r="D182" t="s">
-        <v>562</v>
+        <v>502</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4793,10 +4781,10 @@
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>404</v>
+        <v>299</v>
       </c>
       <c r="D183" t="s">
-        <v>563</v>
+        <v>459</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4807,10 +4795,10 @@
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>356</v>
+        <v>403</v>
       </c>
       <c r="D184" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4821,10 +4809,10 @@
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>323</v>
+        <v>404</v>
       </c>
       <c r="D185" t="s">
-        <v>565</v>
+        <v>468</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4835,10 +4823,10 @@
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>405</v>
+        <v>344</v>
       </c>
       <c r="D186" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4849,10 +4837,10 @@
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D187" t="s">
-        <v>567</v>
+        <v>459</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4863,10 +4851,10 @@
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D188" t="s">
-        <v>467</v>
+        <v>568</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4877,10 +4865,10 @@
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D189" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4891,10 +4879,10 @@
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D190" t="s">
-        <v>504</v>
+        <v>569</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4905,10 +4893,10 @@
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="D191" t="s">
-        <v>500</v>
+        <v>570</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4919,10 +4907,10 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D192" t="s">
-        <v>568</v>
+        <v>468</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4933,10 +4921,10 @@
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="D193" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4950,7 +4938,7 @@
         <v>409</v>
       </c>
       <c r="D194" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4961,10 +4949,10 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>410</v>
+        <v>344</v>
       </c>
       <c r="D195" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4975,10 +4963,10 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="D196" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4989,10 +4977,10 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>411</v>
+        <v>321</v>
       </c>
       <c r="D197" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5003,10 +4991,10 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="D198" t="s">
-        <v>574</v>
+        <v>479</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5017,10 +5005,10 @@
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D199" t="s">
-        <v>575</v>
+        <v>481</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5031,7 +5019,7 @@
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
       <c r="D200" t="s">
         <v>576</v>
@@ -5045,10 +5033,10 @@
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D201" t="s">
-        <v>572</v>
+        <v>491</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5059,10 +5047,10 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>344</v>
+        <v>412</v>
       </c>
       <c r="D202" t="s">
-        <v>503</v>
+        <v>577</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5073,10 +5061,10 @@
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>414</v>
+        <v>306</v>
       </c>
       <c r="D203" t="s">
-        <v>549</v>
+        <v>578</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5087,10 +5075,10 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D204" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5101,10 +5089,10 @@
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="D205" t="s">
-        <v>458</v>
+        <v>580</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5115,10 +5103,10 @@
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>321</v>
+        <v>415</v>
       </c>
       <c r="D206" t="s">
-        <v>578</v>
+        <v>459</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5129,10 +5117,10 @@
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>416</v>
+        <v>359</v>
       </c>
       <c r="D207" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5143,10 +5131,10 @@
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>295</v>
+        <v>416</v>
       </c>
       <c r="D208" t="s">
-        <v>579</v>
+        <v>483</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5160,7 +5148,7 @@
         <v>417</v>
       </c>
       <c r="D209" t="s">
-        <v>467</v>
+        <v>562</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5171,10 +5159,10 @@
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>344</v>
+        <v>418</v>
       </c>
       <c r="D210" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5185,10 +5173,10 @@
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>418</v>
+        <v>329</v>
       </c>
       <c r="D211" t="s">
-        <v>513</v>
+        <v>468</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5199,10 +5187,10 @@
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>299</v>
+        <v>419</v>
       </c>
       <c r="D212" t="s">
-        <v>461</v>
+        <v>582</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -5213,10 +5201,10 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>419</v>
+        <v>352</v>
       </c>
       <c r="D213" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -5227,10 +5215,10 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>420</v>
+        <v>290</v>
       </c>
       <c r="D214" t="s">
-        <v>539</v>
+        <v>584</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -5241,10 +5229,10 @@
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>421</v>
+        <v>339</v>
       </c>
       <c r="D215" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5255,10 +5243,10 @@
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>344</v>
+        <v>420</v>
       </c>
       <c r="D216" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5269,10 +5257,10 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>422</v>
+        <v>304</v>
       </c>
       <c r="D217" t="s">
-        <v>458</v>
+        <v>487</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5283,10 +5271,10 @@
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="D218" t="s">
-        <v>583</v>
+        <v>459</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5297,10 +5285,10 @@
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>423</v>
+        <v>309</v>
       </c>
       <c r="D219" t="s">
-        <v>584</v>
+        <v>487</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5311,10 +5299,10 @@
         <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>299</v>
+        <v>421</v>
       </c>
       <c r="D220" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5325,10 +5313,10 @@
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D221" t="s">
-        <v>458</v>
+        <v>556</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5339,10 +5327,10 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D222" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5353,10 +5341,10 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>354</v>
+        <v>424</v>
       </c>
       <c r="D223" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5367,10 +5355,10 @@
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="D224" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5381,10 +5369,10 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>426</v>
+        <v>397</v>
       </c>
       <c r="D225" t="s">
-        <v>588</v>
+        <v>559</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5395,10 +5383,10 @@
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>427</v>
+        <v>309</v>
       </c>
       <c r="D226" t="s">
-        <v>589</v>
+        <v>538</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5409,10 +5397,10 @@
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D227" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5423,10 +5411,10 @@
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
       <c r="D228" t="s">
-        <v>590</v>
+        <v>473</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5437,10 +5425,10 @@
         <v>230</v>
       </c>
       <c r="C229" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="D229" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5451,10 +5439,10 @@
         <v>231</v>
       </c>
       <c r="C230" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D230" t="s">
-        <v>533</v>
+        <v>483</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5465,10 +5453,10 @@
         <v>232</v>
       </c>
       <c r="C231" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="D231" t="s">
-        <v>592</v>
+        <v>491</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5479,10 +5467,10 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="D232" t="s">
-        <v>592</v>
+        <v>487</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5493,10 +5481,10 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D233" t="s">
-        <v>593</v>
+        <v>475</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5507,7 +5495,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>397</v>
+        <v>430</v>
       </c>
       <c r="D234" t="s">
         <v>458</v>
@@ -5521,10 +5509,10 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>297</v>
+        <v>431</v>
       </c>
       <c r="D235" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5535,10 +5523,10 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>297</v>
+        <v>432</v>
       </c>
       <c r="D236" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5549,10 +5537,10 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>431</v>
+        <v>339</v>
       </c>
       <c r="D237" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5563,10 +5551,10 @@
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="D238" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5577,10 +5565,10 @@
         <v>240</v>
       </c>
       <c r="C239" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D239" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5591,10 +5579,10 @@
         <v>241</v>
       </c>
       <c r="C240" t="s">
-        <v>433</v>
+        <v>304</v>
       </c>
       <c r="D240" t="s">
-        <v>562</v>
+        <v>596</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5605,10 +5593,10 @@
         <v>242</v>
       </c>
       <c r="C241" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="D241" t="s">
-        <v>467</v>
+        <v>597</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5619,10 +5607,10 @@
         <v>243</v>
       </c>
       <c r="C242" t="s">
-        <v>370</v>
+        <v>435</v>
       </c>
       <c r="D242" t="s">
-        <v>465</v>
+        <v>598</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5633,10 +5621,10 @@
         <v>244</v>
       </c>
       <c r="C243" t="s">
-        <v>378</v>
+        <v>306</v>
       </c>
       <c r="D243" t="s">
-        <v>599</v>
+        <v>572</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5647,10 +5635,10 @@
         <v>245</v>
       </c>
       <c r="C244" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D244" t="s">
-        <v>510</v>
+        <v>565</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5661,10 +5649,10 @@
         <v>246</v>
       </c>
       <c r="C245" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="D245" t="s">
-        <v>600</v>
+        <v>514</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5675,10 +5663,10 @@
         <v>247</v>
       </c>
       <c r="C246" t="s">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="D246" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5689,10 +5677,10 @@
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>350</v>
+        <v>437</v>
       </c>
       <c r="D247" t="s">
-        <v>458</v>
+        <v>501</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5703,10 +5691,10 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D248" t="s">
-        <v>552</v>
+        <v>599</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5717,10 +5705,10 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D249" t="s">
-        <v>601</v>
+        <v>491</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5731,10 +5719,10 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="D250" t="s">
-        <v>602</v>
+        <v>475</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5745,10 +5733,10 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="D251" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5759,10 +5747,10 @@
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="D252" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5773,10 +5761,10 @@
         <v>254</v>
       </c>
       <c r="C253" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D253" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5787,10 +5775,10 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D254" t="s">
-        <v>492</v>
+        <v>601</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5801,10 +5789,10 @@
         <v>256</v>
       </c>
       <c r="C255" t="s">
-        <v>296</v>
+        <v>441</v>
       </c>
       <c r="D255" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5815,10 +5803,10 @@
         <v>257</v>
       </c>
       <c r="C256" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D256" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5829,10 +5817,10 @@
         <v>258</v>
       </c>
       <c r="C257" t="s">
-        <v>339</v>
+        <v>442</v>
       </c>
       <c r="D257" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5843,10 +5831,10 @@
         <v>259</v>
       </c>
       <c r="C258" t="s">
-        <v>295</v>
+        <v>443</v>
       </c>
       <c r="D258" t="s">
-        <v>574</v>
+        <v>468</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5857,10 +5845,10 @@
         <v>260</v>
       </c>
       <c r="C259" t="s">
-        <v>440</v>
+        <v>337</v>
       </c>
       <c r="D259" t="s">
-        <v>606</v>
+        <v>473</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5871,10 +5859,10 @@
         <v>261</v>
       </c>
       <c r="C260" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="D260" t="s">
-        <v>500</v>
+        <v>604</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5885,10 +5873,10 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>412</v>
+        <v>443</v>
       </c>
       <c r="D261" t="s">
-        <v>513</v>
+        <v>605</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5899,10 +5887,10 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="D262" t="s">
-        <v>607</v>
+        <v>487</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5913,10 +5901,10 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>441</v>
+        <v>339</v>
       </c>
       <c r="D263" t="s">
-        <v>483</v>
+        <v>458</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5927,10 +5915,10 @@
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>384</v>
+        <v>321</v>
       </c>
       <c r="D264" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5941,10 +5929,10 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="D265" t="s">
-        <v>609</v>
+        <v>504</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5955,10 +5943,10 @@
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D266" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5969,10 +5957,10 @@
         <v>268</v>
       </c>
       <c r="C267" t="s">
-        <v>350</v>
+        <v>445</v>
       </c>
       <c r="D267" t="s">
-        <v>610</v>
+        <v>483</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5983,10 +5971,10 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>443</v>
+        <v>339</v>
       </c>
       <c r="D268" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5997,10 +5985,10 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>332</v>
+        <v>446</v>
       </c>
       <c r="D269" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -6011,10 +5999,10 @@
         <v>271</v>
       </c>
       <c r="C270" t="s">
-        <v>297</v>
+        <v>447</v>
       </c>
       <c r="D270" t="s">
-        <v>612</v>
+        <v>487</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -6025,10 +6013,10 @@
         <v>272</v>
       </c>
       <c r="C271" t="s">
-        <v>444</v>
+        <v>339</v>
       </c>
       <c r="D271" t="s">
-        <v>613</v>
+        <v>538</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6039,10 +6027,10 @@
         <v>273</v>
       </c>
       <c r="C272" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="D272" t="s">
-        <v>500</v>
+        <v>608</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -6053,10 +6041,10 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>445</v>
+        <v>290</v>
       </c>
       <c r="D273" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -6067,10 +6055,10 @@
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>352</v>
+        <v>290</v>
       </c>
       <c r="D274" t="s">
-        <v>615</v>
+        <v>514</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -6081,10 +6069,10 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D275" t="s">
-        <v>513</v>
+        <v>473</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -6095,10 +6083,10 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>389</v>
+        <v>421</v>
       </c>
       <c r="D276" t="s">
-        <v>467</v>
+        <v>610</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -6109,10 +6097,10 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="D277" t="s">
-        <v>513</v>
+        <v>611</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -6123,10 +6111,10 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="D278" t="s">
-        <v>571</v>
+        <v>612</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -6137,10 +6125,10 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="D279" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -6151,10 +6139,10 @@
         <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>447</v>
+        <v>339</v>
       </c>
       <c r="D280" t="s">
-        <v>527</v>
+        <v>599</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -6165,10 +6153,10 @@
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D281" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -6179,10 +6167,10 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D282" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -6193,10 +6181,10 @@
         <v>284</v>
       </c>
       <c r="C283" t="s">
-        <v>450</v>
+        <v>304</v>
       </c>
       <c r="D283" t="s">
-        <v>458</v>
+        <v>614</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -6207,10 +6195,10 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>325</v>
+        <v>453</v>
       </c>
       <c r="D284" t="s">
-        <v>617</v>
+        <v>475</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -6221,10 +6209,10 @@
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D285" t="s">
-        <v>618</v>
+        <v>483</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -6235,10 +6223,10 @@
         <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>350</v>
+        <v>455</v>
       </c>
       <c r="D286" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -6249,10 +6237,10 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>335</v>
+        <v>456</v>
       </c>
       <c r="D287" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -6263,10 +6251,10 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>383</v>
+        <v>290</v>
       </c>
       <c r="D288" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
